--- a/results_it/correlation_output.xlsx
+++ b/results_it/correlation_output.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2851274919345551</v>
+        <v>0.201719179364473</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0999520243099645</v>
+        <v>-0.1796737125864556</v>
       </c>
     </row>
     <row r="4">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4973457429580012</v>
+        <v>0.02106261238163101</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3653238702913673</v>
+        <v>0.2534441427626364</v>
       </c>
     </row>
     <row r="6">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4822032653081915</v>
+        <v>0.1488451950987399</v>
       </c>
     </row>
     <row r="7">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1790287430953126</v>
+        <v>-0.1651290299583159</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.379651577194677</v>
+        <v>0.2265939328154492</v>
       </c>
     </row>
     <row r="9">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.3526279751159148</v>
+        <v>0.2060484432165273</v>
       </c>
     </row>
     <row r="10">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5913290595941071</v>
+        <v>0.02899679354573984</v>
       </c>
     </row>
     <row r="11">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1884520654665666</v>
+        <v>0.2283972293668229</v>
       </c>
     </row>
     <row r="12">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07189640877652112</v>
+        <v>-0.1416670946593299</v>
       </c>
     </row>
     <row r="13">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3041897740182796</v>
+        <v>0.03349841893898103</v>
       </c>
     </row>
     <row r="14">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.207177008335499</v>
+        <v>0.3021807496502599</v>
       </c>
     </row>
     <row r="15">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2928442057707463</v>
+        <v>0.1829236621629943</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.07116114210824388</v>
+        <v>-0.1765907673945638</v>
       </c>
     </row>
     <row r="17">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1654108675954918</v>
+        <v>0.3063308903107639</v>
       </c>
     </row>
     <row r="18">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1381566338066599</v>
+        <v>0.1339847962310828</v>
       </c>
     </row>
     <row r="19">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3777536925898459</v>
+        <v>-0.02137194616739772</v>
       </c>
     </row>
     <row r="20">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2042262229182987</v>
+        <v>0.09906574432787493</v>
       </c>
     </row>
     <row r="21">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1653192174199475</v>
+        <v>-0.194740448341069</v>
       </c>
     </row>
     <row r="22">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0377536513687506</v>
+        <v>-0.1638647367526755</v>
       </c>
     </row>
     <row r="23">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1020553792297433</v>
+        <v>0.1292784363144555</v>
       </c>
     </row>
     <row r="24">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.08599799295978479</v>
+        <v>-0.03728949415016201</v>
       </c>
     </row>
     <row r="25">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02326442371454121</v>
+        <v>-0.2410140430156505</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.03372335247196383</v>
+        <v>0.144609844875994</v>
       </c>
     </row>
     <row r="27">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.0164821813850884</v>
+        <v>0.264213685128634</v>
       </c>
     </row>
     <row r="28">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.1796376579413576</v>
+        <v>-0.2617159050598406</v>
       </c>
     </row>
     <row r="29">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2582623750676512</v>
+        <v>0.1194780879515848</v>
       </c>
     </row>
     <row r="30">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02285740774243271</v>
+        <v>-0.1555667074375976</v>
       </c>
     </row>
     <row r="31">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3693033351699385</v>
+        <v>0.3323795576783574</v>
       </c>
     </row>
     <row r="32">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2074134188384561</v>
+        <v>0.2581508567929998</v>
       </c>
     </row>
     <row r="33">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3356481116829849</v>
+        <v>0.3382222271184304</v>
       </c>
     </row>
     <row r="34">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1215873660039034</v>
+        <v>-0.1667208564200345</v>
       </c>
     </row>
     <row r="35">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.08952821866324209</v>
+        <v>0.286082590343111</v>
       </c>
     </row>
     <row r="36">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.2000382095519016</v>
+        <v>-0.3392495162292711</v>
       </c>
     </row>
     <row r="37">
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.1139071587477035</v>
+        <v>0.1354290969575013</v>
       </c>
     </row>
     <row r="38">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2851274919345551</v>
+        <v>0.201719179364473</v>
       </c>
     </row>
     <row r="39">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.0999520243099645</v>
+        <v>-0.1796737125864555</v>
       </c>
     </row>
     <row r="40">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.497345742958001</v>
+        <v>0.02106261238163101</v>
       </c>
     </row>
     <row r="41">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3653238702913674</v>
+        <v>0.2534441427626363</v>
       </c>
     </row>
     <row r="42">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.4822032653081916</v>
+        <v>0.14884519509874</v>
       </c>
     </row>
     <row r="43">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.1790287430953127</v>
+        <v>-0.1651290299583159</v>
       </c>
     </row>
     <row r="44">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3796515771946772</v>
+        <v>0.2265939328154493</v>
       </c>
     </row>
     <row r="45">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.3526279751159149</v>
+        <v>0.2060484432165274</v>
       </c>
     </row>
     <row r="46">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5913290595941069</v>
+        <v>0.02899679354573982</v>
       </c>
     </row>
     <row r="47">
@@ -906,7 +906,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2738671359641254</v>
+        <v>0.2429656438313715</v>
       </c>
     </row>
     <row r="48">
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.01679756375180963</v>
+        <v>-0.1803809902962129</v>
       </c>
     </row>
     <row r="49">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.4993772792581145</v>
+        <v>0.03337920156329856</v>
       </c>
     </row>
     <row r="50">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.36180260800206</v>
+        <v>0.3411365202685746</v>
       </c>
     </row>
     <row r="51">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.5048503368977832</v>
+        <v>0.2121162128793135</v>
       </c>
     </row>
     <row r="52">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.1634443121920212</v>
+        <v>-0.2181812343201497</v>
       </c>
     </row>
     <row r="53">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3543256584081647</v>
+        <v>0.3317415316141115</v>
       </c>
     </row>
     <row r="54">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.3233026071543158</v>
+        <v>0.2178362776910218</v>
       </c>
     </row>
     <row r="55">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.6270474398086233</v>
+        <v>-0.002112048456888244</v>
       </c>
     </row>
     <row r="56">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2708440129060268</v>
+        <v>0.1950252490930704</v>
       </c>
     </row>
     <row r="57">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.07722253787848869</v>
+        <v>-0.1955710239274906</v>
       </c>
     </row>
     <row r="58">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3343247508162675</v>
+        <v>-0.07326509071550792</v>
       </c>
     </row>
     <row r="59">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2941339252820772</v>
+        <v>0.2976457029231332</v>
       </c>
     </row>
     <row r="60">
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3680167146619037</v>
+        <v>0.1088442962530785</v>
       </c>
     </row>
     <row r="61">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.08856903853040997</v>
+        <v>-0.2450482187753935</v>
       </c>
     </row>
     <row r="62">
@@ -1056,7 +1056,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2098521567237717</v>
+        <v>0.3086093034059991</v>
       </c>
     </row>
     <row r="63">
@@ -1066,7 +1066,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.2211811584626566</v>
+        <v>0.2946959524063493</v>
       </c>
     </row>
     <row r="64">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3213925388582282</v>
+        <v>-0.1815369656909766</v>
       </c>
     </row>
     <row r="65">
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3073302077401321</v>
+        <v>0.184155554701376</v>
       </c>
     </row>
     <row r="66">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.05004736720635389</v>
+        <v>-0.178243558497595</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.4231974315459929</v>
+        <v>0.1597182430519864</v>
       </c>
     </row>
     <row r="68">
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.3094416218620751</v>
+        <v>0.3444911179899116</v>
       </c>
     </row>
     <row r="69">
@@ -1126,7 +1126,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.4537094293555266</v>
+        <v>0.3120833952710677</v>
       </c>
     </row>
     <row r="70">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.1147883039462668</v>
+        <v>-0.2150383936937328</v>
       </c>
     </row>
     <row r="71">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1727156250495277</v>
+        <v>0.3605229878624364</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.2886084249547735</v>
+        <v>0.009651077063657466</v>
       </c>
     </row>
     <row r="73">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.126849069326094</v>
+        <v>-0.01506699433828753</v>
       </c>
     </row>
   </sheetData>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1030886089300918</v>
+        <v>0.1858357317955846</v>
       </c>
     </row>
     <row r="3">
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09042464753323656</v>
+        <v>-0.1208864541337799</v>
       </c>
     </row>
     <row r="4">
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06336100399694262</v>
+        <v>0.02876768883003061</v>
       </c>
     </row>
     <row r="5">
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01485323725948863</v>
+        <v>0.1767772184094252</v>
       </c>
     </row>
     <row r="6">
@@ -3068,7 +3068,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009974521622140476</v>
+        <v>0.09750816959559278</v>
       </c>
     </row>
     <row r="7">
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1339662756542282</v>
+        <v>-0.1866748455815411</v>
       </c>
     </row>
     <row r="8">
@@ -3088,7 +3088,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.0643518454106958</v>
+        <v>0.2225316505697504</v>
       </c>
     </row>
     <row r="9">
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.09881602613270606</v>
+        <v>-0.03164842848193208</v>
       </c>
     </row>
     <row r="10">
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2024590057299672</v>
+        <v>-0.04035295406411168</v>
       </c>
     </row>
     <row r="11">
@@ -3118,7 +3118,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2432348339297233</v>
+        <v>0.3089336051241275</v>
       </c>
     </row>
     <row r="12">
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2133571197482472</v>
+        <v>0.1159614786615145</v>
       </c>
     </row>
     <row r="13">
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06909208803145715</v>
+        <v>0.1706515239491125</v>
       </c>
     </row>
     <row r="14">
@@ -3148,7 +3148,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2031110537035996</v>
+        <v>0.3599723656443466</v>
       </c>
     </row>
     <row r="15">
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2392876533906674</v>
+        <v>0.4226041079067678</v>
       </c>
     </row>
     <row r="16">
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1053025114523014</v>
+        <v>0.08264308963196704</v>
       </c>
     </row>
     <row r="17">
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1449601039634723</v>
+        <v>0.3729899502601923</v>
       </c>
     </row>
     <row r="18">
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008021741012397259</v>
+        <v>-0.1494617881359862</v>
       </c>
     </row>
     <row r="19">
@@ -3198,7 +3198,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1815090592368813</v>
+        <v>0.3907235904529536</v>
       </c>
     </row>
     <row r="20">
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01914427534892238</v>
+        <v>0.2167933285644217</v>
       </c>
     </row>
     <row r="21">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2585592476652899</v>
+        <v>-0.06096371191153472</v>
       </c>
     </row>
     <row r="22">
@@ -3228,7 +3228,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2491480079530523</v>
+        <v>0.06963978300218146</v>
       </c>
     </row>
     <row r="23">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1184086676697818</v>
+        <v>0.2142746054498031</v>
       </c>
     </row>
     <row r="24">
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.05782019234551722</v>
+        <v>0.1414365023539311</v>
       </c>
     </row>
     <row r="25">
@@ -3258,7 +3258,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1822096671499411</v>
+        <v>-0.1604640818436756</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.2410700022191268</v>
+        <v>0.1542624798856536</v>
       </c>
     </row>
     <row r="27">
@@ -3278,7 +3278,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.004056413656357943</v>
+        <v>0.1598762729360295</v>
       </c>
     </row>
     <row r="28">
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.07854503464470126</v>
+        <v>0.05929070668059525</v>
       </c>
     </row>
     <row r="29">
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.166072152245533</v>
+        <v>0.1946686844280249</v>
       </c>
     </row>
     <row r="30">
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.2738719658532958</v>
+        <v>-0.04552020362498221</v>
       </c>
     </row>
     <row r="31">
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02660553373227912</v>
+        <v>-0.0589878544374498</v>
       </c>
     </row>
     <row r="32">
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.02943102974506462</v>
+        <v>0.1960173322164044</v>
       </c>
     </row>
     <row r="33">
@@ -3338,7 +3338,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04688270228678684</v>
+        <v>0.09589986133071381</v>
       </c>
     </row>
     <row r="34">
@@ -3348,7 +3348,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2645341240177004</v>
+        <v>-0.0865723383243968</v>
       </c>
     </row>
     <row r="35">
@@ -3358,7 +3358,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.1058909862603504</v>
+        <v>0.1426326315452221</v>
       </c>
     </row>
     <row r="36">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.07457923924027515</v>
+        <v>0.005728147206517685</v>
       </c>
     </row>
     <row r="37">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.129372947727653</v>
+        <v>-0.1476193364060324</v>
       </c>
     </row>
     <row r="38">
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1030886089300919</v>
+        <v>0.1858357317955847</v>
       </c>
     </row>
     <row r="39">
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.07676757519233529</v>
+        <v>-0.1093880450647145</v>
       </c>
     </row>
     <row r="40">
@@ -3408,7 +3408,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.06336100399694249</v>
+        <v>0.028767688830031</v>
       </c>
     </row>
     <row r="41">
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01485323725948852</v>
+        <v>0.1767772184094251</v>
       </c>
     </row>
     <row r="42">
@@ -3428,7 +3428,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.009974521622140521</v>
+        <v>0.09750816959559283</v>
       </c>
     </row>
     <row r="43">
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.1185473262790041</v>
+        <v>-0.1731615109979993</v>
       </c>
     </row>
     <row r="44">
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.06435184541069584</v>
+        <v>0.2225316505697503</v>
       </c>
     </row>
     <row r="45">
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.09881602613270621</v>
+        <v>-0.03164842848193211</v>
       </c>
     </row>
     <row r="46">
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.2024590057299671</v>
+        <v>-0.04035295406411161</v>
       </c>
     </row>
     <row r="47">
@@ -3478,7 +3478,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1928102540292559</v>
+        <v>0.2885721612204967</v>
       </c>
     </row>
     <row r="48">
@@ -3488,7 +3488,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.05048016066814106</v>
+        <v>-0.01497669014104117</v>
       </c>
     </row>
     <row r="49">
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.07949800038793564</v>
+        <v>0.110090898058201</v>
       </c>
     </row>
     <row r="50">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1252038673161249</v>
+        <v>0.3288547339488213</v>
       </c>
     </row>
     <row r="51">
@@ -3518,7 +3518,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1325652956426739</v>
+        <v>0.3163083175845284</v>
       </c>
     </row>
     <row r="52">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.03001208025673862</v>
+        <v>-0.07933795522545611</v>
       </c>
     </row>
     <row r="53">
@@ -3538,7 +3538,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.04930776508611228</v>
+        <v>0.378652517340677</v>
       </c>
     </row>
     <row r="54">
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.06096368586036345</v>
+        <v>-0.1045097205148825</v>
       </c>
     </row>
     <row r="55">
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.2590084773000705</v>
+        <v>0.250704791490431</v>
       </c>
     </row>
     <row r="56">
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.126200125609028</v>
+        <v>0.2892063637859327</v>
       </c>
     </row>
     <row r="57">
@@ -3578,7 +3578,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1718208462813074</v>
+        <v>-0.04291086964770256</v>
       </c>
     </row>
     <row r="58">
@@ -3588,7 +3588,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2037097146950975</v>
+        <v>0.1034299920372503</v>
       </c>
     </row>
     <row r="59">
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.005658965632266776</v>
+        <v>0.3193494029991364</v>
       </c>
     </row>
     <row r="60">
@@ -3608,7 +3608,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1148879072673223</v>
+        <v>0.277275910640838</v>
       </c>
     </row>
     <row r="61">
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0986929779829696</v>
+        <v>-0.1381103899535575</v>
       </c>
     </row>
     <row r="62">
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.1372507518512021</v>
+        <v>0.3221822711149053</v>
       </c>
     </row>
     <row r="63">
@@ -3638,7 +3638,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.04326011498988238</v>
+        <v>0.03171122741251197</v>
       </c>
     </row>
     <row r="64">
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.1391487756351912</v>
+        <v>0.2326361020678357</v>
       </c>
     </row>
     <row r="65">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1600532129658392</v>
+        <v>0.273364344993074</v>
       </c>
     </row>
     <row r="66">
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2265937386487369</v>
+        <v>-0.04496290776855876</v>
       </c>
     </row>
     <row r="67">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1527294473373102</v>
+        <v>0.04255165882703715</v>
       </c>
     </row>
     <row r="68">
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0200787012890306</v>
+        <v>0.3273888354131214</v>
       </c>
     </row>
     <row r="69">
@@ -3698,7 +3698,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.104750495254432</v>
+        <v>0.2439365163795593</v>
       </c>
     </row>
     <row r="70">
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1885648202578737</v>
+        <v>-0.1198640382300934</v>
       </c>
     </row>
     <row r="71">
@@ -3718,7 +3718,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.1623071506227033</v>
+        <v>0.3034502522319915</v>
       </c>
     </row>
     <row r="72">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.002712095254695149</v>
+        <v>0.02924747443697889</v>
       </c>
     </row>
     <row r="73">
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.009828362938056662</v>
+        <v>0.08484043452442998</v>
       </c>
     </row>
   </sheetData>
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.11522001399957</v>
+        <v>0.3346075777861128</v>
       </c>
     </row>
     <row r="3">
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07126319258359443</v>
+        <v>-0.04317950832318153</v>
       </c>
     </row>
     <row r="4">
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.003916706109997707</v>
+        <v>0.08231870464290653</v>
       </c>
     </row>
     <row r="5">
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0692193793418197</v>
+        <v>0.3303214100447213</v>
       </c>
     </row>
     <row r="6">
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01621998352738709</v>
+        <v>0.2531714957015967</v>
       </c>
     </row>
     <row r="7">
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05768491858833724</v>
+        <v>-0.05842325820328229</v>
       </c>
     </row>
     <row r="8">
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.02763315557447037</v>
+        <v>0.2675355256166631</v>
       </c>
     </row>
     <row r="9">
@@ -3844,7 +3844,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1383726089672843</v>
+        <v>0.1092319405449905</v>
       </c>
     </row>
     <row r="10">
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02140393954143761</v>
+        <v>0.1183285212777334</v>
       </c>
     </row>
     <row r="11">
@@ -3864,7 +3864,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1806972216643268</v>
+        <v>0.1307045543431585</v>
       </c>
     </row>
     <row r="12">
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02690944196063785</v>
+        <v>-0.0277402306206745</v>
       </c>
     </row>
     <row r="13">
@@ -3884,7 +3884,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2047048998997469</v>
+        <v>0.06166537753359572</v>
       </c>
     </row>
     <row r="14">
@@ -3894,7 +3894,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1704326381761878</v>
+        <v>0.09957821758238369</v>
       </c>
     </row>
     <row r="15">
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1988027755289351</v>
+        <v>0.09353318970142295</v>
       </c>
     </row>
     <row r="16">
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05353259223830594</v>
+        <v>-0.08399113863973322</v>
       </c>
     </row>
     <row r="17">
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08429513582371528</v>
+        <v>-0.01726747385526029</v>
       </c>
     </row>
     <row r="18">
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1200354820500378</v>
+        <v>0.02577953955167435</v>
       </c>
     </row>
     <row r="19">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.008890973620351338</v>
+        <v>-0.08470210996948037</v>
       </c>
     </row>
     <row r="20">
@@ -3954,7 +3954,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.294458674375156</v>
+        <v>0.3115684261184638</v>
       </c>
     </row>
     <row r="21">
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1217563558009384</v>
+        <v>0.05769203281492343</v>
       </c>
     </row>
     <row r="22">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2164784734178232</v>
+        <v>0.1852863185145618</v>
       </c>
     </row>
     <row r="23">
@@ -3984,7 +3984,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2639794094522879</v>
+        <v>0.3266287943651752</v>
       </c>
     </row>
     <row r="24">
@@ -3994,7 +3994,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3298736499399383</v>
+        <v>0.3835096981690899</v>
       </c>
     </row>
     <row r="25">
@@ -4004,7 +4004,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.0285051529574911</v>
+        <v>-0.06528396947213513</v>
       </c>
     </row>
     <row r="26">
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2458080577331275</v>
+        <v>0.3288685950356966</v>
       </c>
     </row>
     <row r="27">
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.2017189890660782</v>
+        <v>-0.2042288644248983</v>
       </c>
     </row>
     <row r="28">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.2207245473013537</v>
+        <v>0.2688989820130914</v>
       </c>
     </row>
     <row r="29">
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2976532631169812</v>
+        <v>0.2134737412982697</v>
       </c>
     </row>
     <row r="30">
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1597382072845416</v>
+        <v>0.04219216030710726</v>
       </c>
     </row>
     <row r="31">
@@ -4064,7 +4064,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2317104723100674</v>
+        <v>0.1740991233684265</v>
       </c>
     </row>
     <row r="32">
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3242131495743613</v>
+        <v>0.2521521334584753</v>
       </c>
     </row>
     <row r="33">
@@ -4084,7 +4084,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2966847618804375</v>
+        <v>0.221958387280686</v>
       </c>
     </row>
     <row r="34">
@@ -4094,7 +4094,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1101999499876151</v>
+        <v>-0.01862685131752106</v>
       </c>
     </row>
     <row r="35">
@@ -4104,7 +4104,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.197736670698069</v>
+        <v>0.1847431675697267</v>
       </c>
     </row>
     <row r="36">
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.09789045707582605</v>
+        <v>-0.1294716045860415</v>
       </c>
     </row>
     <row r="37">
@@ -4124,7 +4124,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02422570669191776</v>
+        <v>0.08347645894179631</v>
       </c>
     </row>
     <row r="38">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.06609786558896223</v>
+        <v>0.1545197402760438</v>
       </c>
     </row>
     <row r="39">
@@ -4144,7 +4144,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.118670683284866</v>
+        <v>-0.01958405747868455</v>
       </c>
     </row>
     <row r="40">
@@ -4154,7 +4154,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3830997305489574</v>
+        <v>0.4209278023101977</v>
       </c>
     </row>
     <row r="41">
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.002213424059076799</v>
+        <v>0.1384001771790336</v>
       </c>
     </row>
     <row r="42">
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2033663235054816</v>
+        <v>0.3184077993395195</v>
       </c>
     </row>
     <row r="43">
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01677562043412828</v>
+        <v>-0.1164079606380127</v>
       </c>
     </row>
     <row r="44">
@@ -4194,7 +4194,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.07617730116851097</v>
+        <v>0.1088068795544338</v>
       </c>
     </row>
     <row r="45">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.2838485936824563</v>
+        <v>-0.2588824218676828</v>
       </c>
     </row>
     <row r="46">
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1494937259068204</v>
+        <v>0.4338551580811592</v>
       </c>
     </row>
     <row r="47">
@@ -4224,7 +4224,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1152200139995703</v>
+        <v>0.3346075777861131</v>
       </c>
     </row>
     <row r="48">
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.07126319258359431</v>
+        <v>-0.04317950832318165</v>
       </c>
     </row>
     <row r="49">
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.00391670610999742</v>
+        <v>0.08231870464290608</v>
       </c>
     </row>
     <row r="50">
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.06921937934181961</v>
+        <v>0.3303214100447212</v>
       </c>
     </row>
     <row r="51">
@@ -4264,7 +4264,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01621998352738691</v>
+        <v>0.2531714957015964</v>
       </c>
     </row>
     <row r="52">
@@ -4274,7 +4274,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.05768491858833802</v>
+        <v>-0.05842325820328145</v>
       </c>
     </row>
     <row r="53">
@@ -4284,7 +4284,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.02763315557447031</v>
+        <v>0.2675355256166632</v>
       </c>
     </row>
     <row r="54">
@@ -4294,7 +4294,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1383726089672843</v>
+        <v>0.1092319405449904</v>
       </c>
     </row>
     <row r="55">
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02140393954143757</v>
+        <v>0.1183285212777334</v>
       </c>
     </row>
     <row r="56">
@@ -4314,7 +4314,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1795031554352127</v>
+        <v>0.2797756868209569</v>
       </c>
     </row>
     <row r="57">
@@ -4324,7 +4324,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.05716551712425315</v>
+        <v>-0.04064713772383424</v>
       </c>
     </row>
     <row r="58">
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1165761155692509</v>
+        <v>0.08968876724380262</v>
       </c>
     </row>
     <row r="59">
@@ -4344,7 +4344,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1535986675816304</v>
+        <v>0.2687960303624086</v>
       </c>
     </row>
     <row r="60">
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1337956221438143</v>
+        <v>0.2274826231637977</v>
       </c>
     </row>
     <row r="61">
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.007997438590536452</v>
+        <v>-0.08449211624160854</v>
       </c>
     </row>
     <row r="62">
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.04066084489409045</v>
+        <v>0.1623871174179228</v>
       </c>
     </row>
     <row r="63">
@@ -4384,7 +4384,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0252176620258016</v>
+        <v>0.1007116536956269</v>
       </c>
     </row>
     <row r="64">
@@ -4394,7 +4394,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01036141867148997</v>
+        <v>0.02764797281966286</v>
       </c>
     </row>
     <row r="65">
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2846414049085246</v>
+        <v>0.3436187873236974</v>
       </c>
     </row>
     <row r="66">
@@ -4414,7 +4414,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.09839952177547236</v>
+        <v>0.01586874439689329</v>
       </c>
     </row>
     <row r="67">
@@ -4424,7 +4424,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1887576676689684</v>
+        <v>0.1556284827645609</v>
       </c>
     </row>
     <row r="68">
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.2619762596592303</v>
+        <v>0.3605117884183421</v>
       </c>
     </row>
     <row r="69">
@@ -4444,7 +4444,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2809432725416961</v>
+        <v>0.3673003746886458</v>
       </c>
     </row>
     <row r="70">
@@ -4454,7 +4454,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.009003679564745914</v>
+        <v>-0.07555016426409433</v>
       </c>
     </row>
     <row r="71">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1780577036113337</v>
+        <v>0.295603357609373</v>
       </c>
     </row>
     <row r="72">
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.1289115779155504</v>
+        <v>-0.078128502489061</v>
       </c>
     </row>
     <row r="73">
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.1197547321894215</v>
+        <v>0.2112381259045859</v>
       </c>
     </row>
     <row r="74">
@@ -4494,7 +4494,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3140706404591905</v>
+        <v>0.3076812663196072</v>
       </c>
     </row>
     <row r="75">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1324508417931065</v>
+        <v>0.02989025018831443</v>
       </c>
     </row>
     <row r="76">
@@ -4514,7 +4514,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.2446868576862808</v>
+        <v>0.1922768889157853</v>
       </c>
     </row>
     <row r="77">
@@ -4524,7 +4524,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.332348807459014</v>
+        <v>0.3630079690679385</v>
       </c>
     </row>
     <row r="78">
@@ -4534,7 +4534,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.3408357357535257</v>
+        <v>0.3606916309852666</v>
       </c>
     </row>
     <row r="79">
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.05346233274837518</v>
+        <v>-0.04931132457459138</v>
       </c>
     </row>
     <row r="80">
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.229486240862579</v>
+        <v>0.3039178788984732</v>
       </c>
     </row>
     <row r="81">
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.1472094894733783</v>
+        <v>-0.1314126041262558</v>
       </c>
     </row>
     <row r="82">
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.0697923926683735</v>
+        <v>0.2033776455677035</v>
       </c>
     </row>
     <row r="83">
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2548302624662917</v>
+        <v>0.2833861809264904</v>
       </c>
     </row>
     <row r="84">
@@ -4594,7 +4594,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1307235334655906</v>
+        <v>0.01320111163474804</v>
       </c>
     </row>
     <row r="85">
@@ -4604,7 +4604,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3508766895421153</v>
+        <v>0.3288466950039568</v>
       </c>
     </row>
     <row r="86">
@@ -4614,7 +4614,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.2396883970393215</v>
+        <v>0.3234865520198799</v>
       </c>
     </row>
     <row r="87">
@@ -4624,7 +4624,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3521927423233341</v>
+        <v>0.4208259844374455</v>
       </c>
     </row>
     <row r="88">
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.04316335528512175</v>
+        <v>-0.0784548358048594</v>
       </c>
     </row>
     <row r="89">
@@ -4644,7 +4644,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1121084941653847</v>
+        <v>0.2504889494728971</v>
       </c>
     </row>
     <row r="90">
@@ -4654,7 +4654,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.2606853640016892</v>
+        <v>-0.2353643961852648</v>
       </c>
     </row>
     <row r="91">
@@ -4664,7 +4664,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.02716051719834286</v>
+        <v>0.3656136896312505</v>
       </c>
     </row>
   </sheetData>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05356426084645634</v>
+        <v>0.1621748715387092</v>
       </c>
     </row>
     <row r="3">
@@ -4710,7 +4710,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3828622010259568</v>
+        <v>0.2399423102987916</v>
       </c>
     </row>
     <row r="4">
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2770194839542068</v>
+        <v>0.4257826659687601</v>
       </c>
     </row>
     <row r="5">
@@ -4730,7 +4730,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06206742400918995</v>
+        <v>0.1122017586505342</v>
       </c>
     </row>
     <row r="6">
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06426612845887483</v>
+        <v>0.2984326961176555</v>
       </c>
     </row>
     <row r="7">
@@ -4750,7 +4750,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3623622469819815</v>
+        <v>0.1344267769429323</v>
       </c>
     </row>
     <row r="8">
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.1646801379126658</v>
+        <v>0.06561250167529156</v>
       </c>
     </row>
     <row r="9">
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1341292632213248</v>
+        <v>-0.2147515312041644</v>
       </c>
     </row>
     <row r="10">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.208469632770452</v>
+        <v>0.2686084328546842</v>
       </c>
     </row>
     <row r="11">
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1427265844290657</v>
+        <v>0.03183906471480701</v>
       </c>
     </row>
     <row r="12">
@@ -4800,7 +4800,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2469583581702385</v>
+        <v>0.2022222739375948</v>
       </c>
     </row>
     <row r="13">
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2450175419136247</v>
+        <v>0.2092581814023745</v>
       </c>
     </row>
     <row r="14">
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1405881682398541</v>
+        <v>0.04310392854151348</v>
       </c>
     </row>
     <row r="15">
@@ -4830,7 +4830,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2250096442857033</v>
+        <v>0.1300211522745095</v>
       </c>
     </row>
     <row r="16">
@@ -4840,7 +4840,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1321885810327514</v>
+        <v>0.08786270969604507</v>
       </c>
     </row>
     <row r="17">
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08691754506027191</v>
+        <v>0.01579290454250339</v>
       </c>
     </row>
     <row r="18">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08621770894937245</v>
+        <v>-0.1314679476078764</v>
       </c>
     </row>
     <row r="19">
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005054871376779571</v>
+        <v>0.09898343699420048</v>
       </c>
     </row>
     <row r="20">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2497686456474609</v>
+        <v>0.1714381913454282</v>
       </c>
     </row>
     <row r="21">
@@ -4890,7 +4890,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3799992282695747</v>
+        <v>0.241897869590575</v>
       </c>
     </row>
     <row r="22">
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2173282229960077</v>
+        <v>0.3279729534234223</v>
       </c>
     </row>
     <row r="23">
@@ -4910,7 +4910,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1082926796238192</v>
+        <v>0.104153629324623</v>
       </c>
     </row>
     <row r="24">
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1583222243847114</v>
+        <v>0.22044862306878</v>
       </c>
     </row>
     <row r="25">
@@ -4930,7 +4930,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3002290461021667</v>
+        <v>0.2128150616118551</v>
       </c>
     </row>
     <row r="26">
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.05668258353761205</v>
+        <v>0.01313372284489979</v>
       </c>
     </row>
     <row r="27">
@@ -4950,7 +4950,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.00955225099979784</v>
+        <v>-0.1108121024374466</v>
       </c>
     </row>
     <row r="28">
@@ -4960,7 +4960,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.04193525283949655</v>
+        <v>0.1166067424628139</v>
       </c>
     </row>
     <row r="29">
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2671232774825174</v>
+        <v>0.1912219755136271</v>
       </c>
     </row>
     <row r="30">
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3274544687777123</v>
+        <v>0.213301392796925</v>
       </c>
     </row>
     <row r="31">
@@ -4990,7 +4990,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3617220835991756</v>
+        <v>0.3165151717876443</v>
       </c>
     </row>
     <row r="32">
@@ -5000,7 +5000,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2049213129641915</v>
+        <v>0.1679961134321766</v>
       </c>
     </row>
     <row r="33">
@@ -5010,7 +5010,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3674620435081097</v>
+        <v>0.3054672161816222</v>
       </c>
     </row>
     <row r="34">
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2626483485214713</v>
+        <v>0.1824897912433276</v>
       </c>
     </row>
     <row r="35">
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.09146588560036042</v>
+        <v>0.1024393738350751</v>
       </c>
     </row>
     <row r="36">
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.4550034502311344</v>
+        <v>-0.3353997152988147</v>
       </c>
     </row>
     <row r="37">
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.09440483158104969</v>
+        <v>0.09776605605826712</v>
       </c>
     </row>
     <row r="38">
@@ -5060,7 +5060,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3671838755328281</v>
+        <v>0.2399609831773188</v>
       </c>
     </row>
     <row r="39">
@@ -5070,7 +5070,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3141831399013428</v>
+        <v>0.2107178419952956</v>
       </c>
     </row>
     <row r="40">
@@ -5080,7 +5080,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4226930575128677</v>
+        <v>0.4094593715529529</v>
       </c>
     </row>
     <row r="41">
@@ -5090,7 +5090,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2188217638878537</v>
+        <v>0.1460264016653356</v>
       </c>
     </row>
     <row r="42">
@@ -5100,7 +5100,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.378541457719716</v>
+        <v>0.3112563803914836</v>
       </c>
     </row>
     <row r="43">
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1673734910000383</v>
+        <v>0.09436007109989782</v>
       </c>
     </row>
     <row r="44">
@@ -5120,7 +5120,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.008162091656804909</v>
+        <v>0.01278294338320942</v>
       </c>
     </row>
     <row r="45">
@@ -5130,7 +5130,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.1414166320241375</v>
+        <v>-0.1051579002299648</v>
       </c>
     </row>
     <row r="46">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0583607594571872</v>
+        <v>0.1176687777952138</v>
       </c>
     </row>
     <row r="47">
@@ -5150,7 +5150,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.05356426084645613</v>
+        <v>0.1621748715387089</v>
       </c>
     </row>
     <row r="48">
@@ -5160,7 +5160,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.3828622010259569</v>
+        <v>0.2399423102987916</v>
       </c>
     </row>
     <row r="49">
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2770194839542073</v>
+        <v>0.4257826659687607</v>
       </c>
     </row>
     <row r="50">
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.06206742400918979</v>
+        <v>0.1122017586505345</v>
       </c>
     </row>
     <row r="51">
@@ -5190,7 +5190,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.06426612845887494</v>
+        <v>0.2984326961176558</v>
       </c>
     </row>
     <row r="52">
@@ -5200,7 +5200,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3623622469819815</v>
+        <v>0.1344267769429323</v>
       </c>
     </row>
     <row r="53">
@@ -5210,7 +5210,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.164680137912666</v>
+        <v>0.06561250167529138</v>
       </c>
     </row>
     <row r="54">
@@ -5220,7 +5220,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.1341292632213251</v>
+        <v>-0.2147515312041645</v>
       </c>
     </row>
     <row r="55">
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2084696327704521</v>
+        <v>0.2686084328546843</v>
       </c>
     </row>
     <row r="56">
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.1243581849188806</v>
+        <v>0.09834515609203982</v>
       </c>
     </row>
     <row r="57">
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3363601033176477</v>
+        <v>0.2373931455807163</v>
       </c>
     </row>
     <row r="58">
@@ -5260,7 +5260,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.298794376720236</v>
+        <v>0.372640969802337</v>
       </c>
     </row>
     <row r="59">
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0696285916003703</v>
+        <v>0.08794722701549565</v>
       </c>
     </row>
     <row r="60">
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1744203211777294</v>
+        <v>0.2484484559228717</v>
       </c>
     </row>
     <row r="61">
@@ -5290,7 +5290,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2751375510675252</v>
+        <v>0.1261384050811975</v>
       </c>
     </row>
     <row r="62">
@@ -5300,7 +5300,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.02482376439363613</v>
+        <v>0.04884450240912902</v>
       </c>
     </row>
     <row r="63">
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.1415292056514628</v>
+        <v>-0.2199988001071184</v>
       </c>
     </row>
     <row r="64">
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1639409246688669</v>
+        <v>0.2675094280613569</v>
       </c>
     </row>
     <row r="65">
@@ -5330,7 +5330,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2097596321682203</v>
+        <v>0.1525351653563737</v>
       </c>
     </row>
     <row r="66">
@@ -5340,7 +5340,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.3749045696892399</v>
+        <v>0.2508800044503763</v>
       </c>
     </row>
     <row r="67">
@@ -5350,7 +5350,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3070699609690337</v>
+        <v>0.4118366914366235</v>
       </c>
     </row>
     <row r="68">
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1131567103077247</v>
+        <v>0.1237176046933607</v>
       </c>
     </row>
     <row r="69">
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.2187355050813233</v>
+        <v>0.3048884557699167</v>
       </c>
     </row>
     <row r="70">
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.3085317670165885</v>
+        <v>0.1839038388998163</v>
       </c>
     </row>
     <row r="71">
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.05976406809937708</v>
+        <v>0.04471061431342421</v>
       </c>
     </row>
     <row r="72">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.08513622022150644</v>
+        <v>-0.2124137784143589</v>
       </c>
     </row>
     <row r="73">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1416681420037657</v>
+        <v>0.2579351277476281</v>
       </c>
     </row>
     <row r="74">
@@ -5420,7 +5420,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2736328290670211</v>
+        <v>0.1971904067002095</v>
       </c>
     </row>
     <row r="75">
@@ -5430,7 +5430,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.3545820932725031</v>
+        <v>0.2348345326954768</v>
       </c>
     </row>
     <row r="76">
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.369231770683475</v>
+        <v>0.4105251743709366</v>
       </c>
     </row>
     <row r="77">
@@ -5450,7 +5450,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1974787877113135</v>
+        <v>0.1804363654455217</v>
       </c>
     </row>
     <row r="78">
@@ -5460,7 +5460,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.3458178949605293</v>
+        <v>0.3667791605742911</v>
       </c>
     </row>
     <row r="79">
@@ -5470,7 +5470,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2940865556737139</v>
+        <v>0.190904314414945</v>
       </c>
     </row>
     <row r="80">
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.02620857219558789</v>
+        <v>0.0940082167377007</v>
       </c>
     </row>
     <row r="81">
@@ -5490,7 +5490,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.3242697802154799</v>
+        <v>-0.3546287261934471</v>
       </c>
     </row>
     <row r="82">
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1560069851806772</v>
+        <v>0.2421202688118187</v>
       </c>
     </row>
     <row r="83">
@@ -5510,7 +5510,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.3278276744471103</v>
+        <v>0.2280882023728385</v>
       </c>
     </row>
     <row r="84">
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.3450412392218832</v>
+        <v>0.2294062192487599</v>
       </c>
     </row>
     <row r="85">
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.4338054525758495</v>
+        <v>0.4603340226189524</v>
       </c>
     </row>
     <row r="86">
@@ -5540,7 +5540,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.2431902658607807</v>
+        <v>0.201829574883185</v>
       </c>
     </row>
     <row r="87">
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4275988037729739</v>
+        <v>0.421367653514647</v>
       </c>
     </row>
     <row r="88">
@@ -5560,7 +5560,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.264045189508568</v>
+        <v>0.1664893268040011</v>
       </c>
     </row>
     <row r="89">
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01636032998232926</v>
+        <v>0.07862739324479191</v>
       </c>
     </row>
     <row r="90">
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.3339925507304108</v>
+        <v>-0.3472044394803803</v>
       </c>
     </row>
     <row r="91">
@@ -5590,7 +5590,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1643180261434553</v>
+        <v>0.2650312726711671</v>
       </c>
     </row>
   </sheetData>
@@ -5626,7 +5626,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.416789938494018</v>
+        <v>0.1629290694068044</v>
       </c>
     </row>
     <row r="3">
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.05178613660284893</v>
+        <v>-0.07428087958690922</v>
       </c>
     </row>
     <row r="4">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5103197562623379</v>
+        <v>0.3030276505526169</v>
       </c>
     </row>
     <row r="5">
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5049090110760908</v>
+        <v>0.2212405399836824</v>
       </c>
     </row>
     <row r="6">
@@ -5666,7 +5666,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5842766158531899</v>
+        <v>0.2862570304953224</v>
       </c>
     </row>
     <row r="7">
@@ -5676,7 +5676,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1533527242842103</v>
+        <v>-0.1912490428869206</v>
       </c>
     </row>
     <row r="8">
@@ -5686,7 +5686,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.507440269846834</v>
+        <v>0.2209806997922742</v>
       </c>
     </row>
     <row r="9">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.2209270284788733</v>
+        <v>-0.1294548643320066</v>
       </c>
     </row>
     <row r="10">
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04755015513238382</v>
+        <v>0.2038879768539391</v>
       </c>
     </row>
     <row r="11">
@@ -5716,7 +5716,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.231390134161765</v>
+        <v>0.3115910266385198</v>
       </c>
     </row>
     <row r="12">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1792532948269059</v>
+        <v>0.04922182988883096</v>
       </c>
     </row>
     <row r="13">
@@ -5736,7 +5736,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.190718696355317</v>
+        <v>0.1607719140745848</v>
       </c>
     </row>
     <row r="14">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2527622248246417</v>
+        <v>0.3155958840802659</v>
       </c>
     </row>
     <row r="15">
@@ -5756,7 +5756,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2865513788561597</v>
+        <v>0.3107194728440094</v>
       </c>
     </row>
     <row r="16">
@@ -5766,7 +5766,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.2670406539101023</v>
+        <v>0.02724634112413729</v>
       </c>
     </row>
     <row r="17">
@@ -5776,7 +5776,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2745371877599513</v>
+        <v>0.3117851866222674</v>
       </c>
     </row>
     <row r="18">
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1190378540951615</v>
+        <v>-0.008607093530110512</v>
       </c>
     </row>
     <row r="19">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.07882165416256214</v>
+        <v>-0.1103709827744597</v>
       </c>
     </row>
     <row r="20">
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.041687412259798</v>
+        <v>0.1412608304973339</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.09793690216874715</v>
+        <v>0.0572397838546873</v>
       </c>
     </row>
     <row r="22">
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1957329671216717</v>
+        <v>0.006279314921154662</v>
       </c>
     </row>
     <row r="23">
@@ -5836,7 +5836,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0908744492547119</v>
+        <v>0.1842478092085224</v>
       </c>
     </row>
     <row r="24">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1498851882025491</v>
+        <v>0.1239532426115743</v>
       </c>
     </row>
     <row r="25">
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1377733875752287</v>
+        <v>0.06956106484434264</v>
       </c>
     </row>
     <row r="26">
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1598442375059141</v>
+        <v>0.2004831020806189</v>
       </c>
     </row>
     <row r="27">
@@ -5876,7 +5876,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.01792330568148922</v>
+        <v>-0.04400247196452577</v>
       </c>
     </row>
     <row r="28">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.2066533402785088</v>
+        <v>-0.03421477421926013</v>
       </c>
     </row>
     <row r="29">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2509340157465119</v>
+        <v>0.2758461408472598</v>
       </c>
     </row>
     <row r="30">
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.00308751928607552</v>
+        <v>0.1297653029114243</v>
       </c>
     </row>
     <row r="31">
@@ -5916,7 +5916,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2007516673271288</v>
+        <v>0.1488843527172314</v>
       </c>
     </row>
     <row r="32">
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2890876095740567</v>
+        <v>0.3257119171201403</v>
       </c>
     </row>
     <row r="33">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3109305383928959</v>
+        <v>0.3014798416822742</v>
       </c>
     </row>
     <row r="34">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0007454911846934689</v>
+        <v>0.1271229218794055</v>
       </c>
     </row>
     <row r="35">
@@ -5956,7 +5956,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.272592547573424</v>
+        <v>0.3207037091765381</v>
       </c>
     </row>
     <row r="36">
@@ -5966,7 +5966,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.004195240804969958</v>
+        <v>-0.153660082721826</v>
       </c>
     </row>
     <row r="37">
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.07659822671301686</v>
+        <v>0.192917907714739</v>
       </c>
     </row>
     <row r="38">
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1230408484423811</v>
+        <v>0.1554143978737247</v>
       </c>
     </row>
     <row r="39">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.05725881977341354</v>
+        <v>0.02719211959771897</v>
       </c>
     </row>
     <row r="40">
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3576909476327265</v>
+        <v>0.1110447713059365</v>
       </c>
     </row>
     <row r="41">
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2890073614255241</v>
+        <v>0.3065602616763093</v>
       </c>
     </row>
     <row r="42">
@@ -6026,7 +6026,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.378367668480625</v>
+        <v>0.228730767016636</v>
       </c>
     </row>
     <row r="43">
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.08132451622034256</v>
+        <v>0.0657601973312298</v>
       </c>
     </row>
     <row r="44">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3419779462394351</v>
+        <v>0.3621324840773801</v>
       </c>
     </row>
     <row r="45">
@@ -6056,7 +6056,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.08866505758703939</v>
+        <v>-0.2452456905874787</v>
       </c>
     </row>
     <row r="46">
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2580841384554839</v>
+        <v>0.1955900245659262</v>
       </c>
     </row>
     <row r="47">
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.02747742319085199</v>
+        <v>0.1951664931634793</v>
       </c>
     </row>
     <row r="48">
@@ -6086,7 +6086,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.0006181731160643903</v>
+        <v>-0.01373663649106199</v>
       </c>
     </row>
     <row r="49">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.3031781113473875</v>
+        <v>0.3527608779560417</v>
       </c>
     </row>
     <row r="50">
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.02889693703079087</v>
+        <v>0.2098862218990711</v>
       </c>
     </row>
     <row r="51">
@@ -6116,7 +6116,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1500511345686984</v>
+        <v>0.314220708658802</v>
       </c>
     </row>
     <row r="52">
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02557902732872614</v>
+        <v>-0.09445638582688658</v>
       </c>
     </row>
     <row r="53">
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.004490157720460328</v>
+        <v>0.1842922351908989</v>
       </c>
     </row>
     <row r="54">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.02500337552462591</v>
+        <v>-0.05930966032546039</v>
       </c>
     </row>
     <row r="55">
@@ -6156,7 +6156,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.28859550927769</v>
+        <v>0.2754125978736808</v>
       </c>
     </row>
     <row r="56">
@@ -6166,7 +6166,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.4167899384940178</v>
+        <v>0.1629290694068043</v>
       </c>
     </row>
     <row r="57">
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.05178613660284909</v>
+        <v>-0.07428087958690925</v>
       </c>
     </row>
     <row r="58">
@@ -6186,7 +6186,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.5103197562623377</v>
+        <v>0.303027650552617</v>
       </c>
     </row>
     <row r="59">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.5049090110760911</v>
+        <v>0.2212405399836826</v>
       </c>
     </row>
     <row r="60">
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.5842766158531901</v>
+        <v>0.2862570304953225</v>
       </c>
     </row>
     <row r="61">
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.1533527242842103</v>
+        <v>-0.1912490428869208</v>
       </c>
     </row>
     <row r="62">
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.5074402698468339</v>
+        <v>0.2209806997922742</v>
       </c>
     </row>
     <row r="63">
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.2209270284788732</v>
+        <v>-0.1294548643320065</v>
       </c>
     </row>
     <row r="64">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.04755015513238382</v>
+        <v>0.2038879768539391</v>
       </c>
     </row>
     <row r="65">
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.3705630404064705</v>
+        <v>0.2862331119544598</v>
       </c>
     </row>
     <row r="66">
@@ -6266,7 +6266,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.122872501929211</v>
+        <v>-0.01977510577088354</v>
       </c>
     </row>
     <row r="67">
@@ -6276,7 +6276,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.4475918898713925</v>
+        <v>0.2960772887184619</v>
       </c>
     </row>
     <row r="68">
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.4387746917534419</v>
+        <v>0.3233823443932618</v>
       </c>
     </row>
     <row r="69">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.5247111112181631</v>
+        <v>0.3525036312940328</v>
       </c>
     </row>
     <row r="70">
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.2422211081672375</v>
+        <v>-0.09853240320960316</v>
       </c>
     </row>
     <row r="71">
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.4847302825329505</v>
+        <v>0.3328135840696305</v>
       </c>
     </row>
     <row r="72">
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.09571330577982387</v>
+        <v>-0.1014681183352282</v>
       </c>
     </row>
     <row r="73">
@@ -6336,7 +6336,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.02027672305468996</v>
+        <v>0.07156880697218587</v>
       </c>
     </row>
     <row r="74">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.2167642340915512</v>
+        <v>0.237973607143095</v>
       </c>
     </row>
     <row r="75">
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.1148323962200376</v>
+        <v>0.0199575773200773</v>
       </c>
     </row>
     <row r="76">
@@ -6366,7 +6366,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.3932444035253695</v>
+        <v>0.1846256521691023</v>
       </c>
     </row>
     <row r="77">
@@ -6376,7 +6376,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.3143006173064298</v>
+        <v>0.3090827680383498</v>
       </c>
     </row>
     <row r="78">
@@ -6386,7 +6386,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4278893430639084</v>
+        <v>0.3022557075525287</v>
       </c>
     </row>
     <row r="79">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.2062820297726204</v>
+        <v>-0.02068152247883146</v>
       </c>
     </row>
     <row r="80">
@@ -6406,7 +6406,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.4145977630868985</v>
+        <v>0.3454194189681521</v>
       </c>
     </row>
     <row r="81">
@@ -6416,7 +6416,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.08045616059030722</v>
+        <v>-0.1018335314793986</v>
       </c>
     </row>
     <row r="82">
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.154544874715296</v>
+        <v>0.02269119944744174</v>
       </c>
     </row>
     <row r="83">
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2688832399019306</v>
+        <v>0.2919764598852727</v>
       </c>
     </row>
     <row r="84">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.06426496100537153</v>
+        <v>0.07562945805861111</v>
       </c>
     </row>
     <row r="85">
@@ -6456,7 +6456,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.3576869165751724</v>
+        <v>0.2008898099886705</v>
       </c>
     </row>
     <row r="86">
@@ -6466,7 +6466,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.3815935278254685</v>
+        <v>0.3897749100584074</v>
       </c>
     </row>
     <row r="87">
@@ -6476,7 +6476,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4658751888003066</v>
+        <v>0.3686698906594645</v>
       </c>
     </row>
     <row r="88">
@@ -6486,7 +6486,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1046563458708806</v>
+        <v>0.06183076293659352</v>
       </c>
     </row>
     <row r="89">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.4753863658377378</v>
+        <v>0.4443268020933759</v>
       </c>
     </row>
     <row r="90">
@@ -6506,7 +6506,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.06292701933999861</v>
+        <v>-0.1837231091027129</v>
       </c>
     </row>
     <row r="91">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1605507538114332</v>
+        <v>0.14261708255291</v>
       </c>
     </row>
     <row r="92">
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.2420602622218041</v>
+        <v>0.2675132705336882</v>
       </c>
     </row>
     <row r="93">
@@ -6536,7 +6536,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.06278312449039908</v>
+        <v>0.06100601484092119</v>
       </c>
     </row>
     <row r="94">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.4056056676456286</v>
+        <v>0.1911019531540298</v>
       </c>
     </row>
     <row r="95">
@@ -6556,7 +6556,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.392904134597194</v>
+        <v>0.4021261681289769</v>
       </c>
     </row>
     <row r="96">
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.4867644501187786</v>
+        <v>0.362857717209145</v>
       </c>
     </row>
     <row r="97">
@@ -6576,7 +6576,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.100567224590643</v>
+        <v>0.06570257184234941</v>
       </c>
     </row>
     <row r="98">
@@ -6586,7 +6586,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.4946486036533977</v>
+        <v>0.4779208945945099</v>
       </c>
     </row>
     <row r="99">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.09652344291253072</v>
+        <v>-0.2728492499872859</v>
       </c>
     </row>
     <row r="100">
@@ -6606,7 +6606,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2392155367216042</v>
+        <v>0.196782496215606</v>
       </c>
     </row>
     <row r="101">
@@ -6616,7 +6616,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1877898864748651</v>
+        <v>0.2719693052546737</v>
       </c>
     </row>
     <row r="102">
@@ -6626,7 +6626,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.0475972852940463</v>
+        <v>0.04174449794356815</v>
       </c>
     </row>
     <row r="103">
@@ -6636,7 +6636,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.4466379532516226</v>
+        <v>0.2776405231781133</v>
       </c>
     </row>
     <row r="104">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.3099709368010396</v>
+        <v>0.4031314875001227</v>
       </c>
     </row>
     <row r="105">
@@ -6656,7 +6656,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.4779770462000054</v>
+        <v>0.4218660340445565</v>
       </c>
     </row>
     <row r="106">
@@ -6666,7 +6666,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.06266584817329211</v>
+        <v>0.01879859275039489</v>
       </c>
     </row>
     <row r="107">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.3608012691021604</v>
+        <v>0.4338481669511626</v>
       </c>
     </row>
     <row r="108">
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.105979292835607</v>
+        <v>-0.2918828718914041</v>
       </c>
     </row>
     <row r="109">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.3277318272198915</v>
+        <v>0.2854947359925036</v>
       </c>
     </row>
   </sheetData>
@@ -6732,7 +6732,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2081640390417175</v>
+        <v>0.3029971065632742</v>
       </c>
     </row>
     <row r="3">
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.03447263086212567</v>
+        <v>-0.1119558813276172</v>
       </c>
     </row>
     <row r="4">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1428382307554215</v>
+        <v>0.1013465206688181</v>
       </c>
     </row>
     <row r="5">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2310993229345759</v>
+        <v>0.3688629297978194</v>
       </c>
     </row>
     <row r="6">
@@ -6772,7 +6772,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2414205938408288</v>
+        <v>0.3399259713775747</v>
       </c>
     </row>
     <row r="7">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1363178338776412</v>
+        <v>-0.20841499904533</v>
       </c>
     </row>
     <row r="8">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2207612807845769</v>
+        <v>0.4029701754867637</v>
       </c>
     </row>
     <row r="9">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1648396176409346</v>
+        <v>0.1289578207201127</v>
       </c>
     </row>
     <row r="10">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0585476576006075</v>
+        <v>0.09167689892477912</v>
       </c>
     </row>
     <row r="11">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05765720022690296</v>
+        <v>0.1487884412743208</v>
       </c>
     </row>
     <row r="12">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.1033251019071151</v>
+        <v>-0.1141380661321638</v>
       </c>
     </row>
     <row r="13">
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3869690731712669</v>
+        <v>0.3810828836075363</v>
       </c>
     </row>
     <row r="14">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07213234151503185</v>
+        <v>0.336397672789034</v>
       </c>
     </row>
     <row r="15">
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3120262534494421</v>
+        <v>0.4787253167356858</v>
       </c>
     </row>
     <row r="16">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1158125161125967</v>
+        <v>-0.1014304963798567</v>
       </c>
     </row>
     <row r="17">
@@ -6882,7 +6882,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2049598778504702</v>
+        <v>0.4660935295279127</v>
       </c>
     </row>
     <row r="18">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3385585208986567</v>
+        <v>-0.3414512123561381</v>
       </c>
     </row>
     <row r="19">
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2213571950887426</v>
+        <v>0.3340207368165046</v>
       </c>
     </row>
     <row r="20">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01479485820846551</v>
+        <v>0.07910326448859671</v>
       </c>
     </row>
     <row r="21">
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01507314264829193</v>
+        <v>-0.09542831729511844</v>
       </c>
     </row>
     <row r="22">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3133381585653291</v>
+        <v>0.227421861631989</v>
       </c>
     </row>
     <row r="23">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.06306419876010685</v>
+        <v>0.1697270591931188</v>
       </c>
     </row>
     <row r="24">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2173240899742163</v>
+        <v>0.2307796396329476</v>
       </c>
     </row>
     <row r="25">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01396372291167396</v>
+        <v>-0.1006128203502433</v>
       </c>
     </row>
     <row r="26">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.07254383996014949</v>
+        <v>0.2328391812204441</v>
       </c>
     </row>
     <row r="27">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.05880292359237826</v>
+        <v>-0.1467067194907402</v>
       </c>
     </row>
     <row r="28">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3164031700090176</v>
+        <v>0.3148210541643838</v>
       </c>
     </row>
     <row r="29">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04072545041770916</v>
+        <v>0.04810631051430588</v>
       </c>
     </row>
     <row r="30">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.1411361783372163</v>
+        <v>-0.1342940493214249</v>
       </c>
     </row>
     <row r="31">
@@ -7022,7 +7022,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3586065823578036</v>
+        <v>0.1490086449277511</v>
       </c>
     </row>
     <row r="32">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1937255261737683</v>
+        <v>0.2180933421325993</v>
       </c>
     </row>
     <row r="33">
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3126403860133825</v>
+        <v>0.2020026481206326</v>
       </c>
     </row>
     <row r="34">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1923001353300884</v>
+        <v>-0.1352623465986871</v>
       </c>
     </row>
     <row r="35">
@@ -7062,7 +7062,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3942832594088403</v>
+        <v>0.4318175622202464</v>
       </c>
     </row>
     <row r="36">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.2829440228542454</v>
+        <v>-0.2360469241628814</v>
       </c>
     </row>
     <row r="37">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.09573906295065511</v>
+        <v>0.09004146304662979</v>
       </c>
     </row>
     <row r="38">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.06510763072925281</v>
+        <v>0.07398318318894975</v>
       </c>
     </row>
     <row r="39">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.06253294656451085</v>
+        <v>-0.09624058214752297</v>
       </c>
     </row>
     <row r="40">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3397281924153256</v>
+        <v>0.08108423582218721</v>
       </c>
     </row>
     <row r="41">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.1396428197713712</v>
+        <v>0.1754760153157867</v>
       </c>
     </row>
     <row r="42">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2875324696934484</v>
+        <v>0.1983395092003954</v>
       </c>
     </row>
     <row r="43">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.08040127744375634</v>
+        <v>-0.09179179086692683</v>
       </c>
     </row>
     <row r="44">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2070909088246506</v>
+        <v>0.2360556473203009</v>
       </c>
     </row>
     <row r="45">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.3794918555610498</v>
+        <v>-0.3037799131705158</v>
       </c>
     </row>
     <row r="46">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3704673864143032</v>
+        <v>0.3506030823587837</v>
       </c>
     </row>
     <row r="47">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1118777100907003</v>
+        <v>0.08661318454566969</v>
       </c>
     </row>
     <row r="48">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.145391320467479</v>
+        <v>-0.1331089346368396</v>
       </c>
     </row>
     <row r="49">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2440459595285749</v>
+        <v>0.2229695703666224</v>
       </c>
     </row>
     <row r="50">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1855717555216726</v>
+        <v>0.2251177658608931</v>
       </c>
     </row>
     <row r="51">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2458122919893109</v>
+        <v>0.2666142629695532</v>
       </c>
     </row>
     <row r="52">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.2184330683241212</v>
+        <v>-0.1953734990298916</v>
       </c>
     </row>
     <row r="53">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2109997252437708</v>
+        <v>0.2993582936311389</v>
       </c>
     </row>
     <row r="54">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.03567368397834376</v>
+        <v>-0.2490259848919872</v>
       </c>
     </row>
     <row r="55">
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02095199416413968</v>
+        <v>0.3587609914096543</v>
       </c>
     </row>
     <row r="56">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2081640390417171</v>
+        <v>0.3029971065632741</v>
       </c>
     </row>
     <row r="57">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.03447263086212574</v>
+        <v>-0.1119558813276173</v>
       </c>
     </row>
     <row r="58">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1428382307554219</v>
+        <v>0.1013465206688178</v>
       </c>
     </row>
     <row r="59">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2310993229345762</v>
+        <v>0.3688629297978194</v>
       </c>
     </row>
     <row r="60">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2414205938408286</v>
+        <v>0.3399259713775752</v>
       </c>
     </row>
     <row r="61">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.1363178338776411</v>
+        <v>-0.20841499904533</v>
       </c>
     </row>
     <row r="62">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2207612807845768</v>
+        <v>0.4029701754867636</v>
       </c>
     </row>
     <row r="63">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1648396176409346</v>
+        <v>0.1289578207201126</v>
       </c>
     </row>
     <row r="64">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0585476576006075</v>
+        <v>0.09167689892477908</v>
       </c>
     </row>
     <row r="65">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.09444853775082099</v>
+        <v>0.2636588773034599</v>
       </c>
     </row>
     <row r="66">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.07250264394860147</v>
+        <v>-0.1174048624110408</v>
       </c>
     </row>
     <row r="67">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.3585189495862928</v>
+        <v>0.3365729754939995</v>
       </c>
     </row>
     <row r="68">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1773428384953454</v>
+        <v>0.3967261121267189</v>
       </c>
     </row>
     <row r="69">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3375732090575099</v>
+        <v>0.4921889494072315</v>
       </c>
     </row>
     <row r="70">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.1725944469189774</v>
+        <v>-0.1921620043662371</v>
       </c>
     </row>
     <row r="71">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.2463957941334153</v>
+        <v>0.4882278114069238</v>
       </c>
     </row>
     <row r="72">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.1822314108408468</v>
+        <v>-0.205254439694885</v>
       </c>
     </row>
     <row r="73">
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.190427256482386</v>
+        <v>0.2934551864773033</v>
       </c>
     </row>
     <row r="74">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.06239163127690588</v>
+        <v>0.2003586115977551</v>
       </c>
     </row>
     <row r="75">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.04928524785454012</v>
+        <v>-0.1140791015642198</v>
       </c>
     </row>
     <row r="76">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.4024978515111445</v>
+        <v>0.336958184684066</v>
       </c>
     </row>
     <row r="77">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1443375212162645</v>
+        <v>0.34216196232943</v>
       </c>
     </row>
     <row r="78">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.340873976279032</v>
+        <v>0.445656475268556</v>
       </c>
     </row>
     <row r="79">
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.1065010970902068</v>
+        <v>-0.1735499913713543</v>
       </c>
     </row>
     <row r="80">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2032787934859722</v>
+        <v>0.4506540742180951</v>
       </c>
     </row>
     <row r="81">
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.1688243019090081</v>
+        <v>-0.2431520576074847</v>
       </c>
     </row>
     <row r="82">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3215792012633283</v>
+        <v>0.3950219084108591</v>
       </c>
     </row>
     <row r="83">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.05515001752235528</v>
+        <v>0.1320681978201234</v>
       </c>
     </row>
     <row r="84">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.0923741492460404</v>
+        <v>-0.1245503184641084</v>
       </c>
     </row>
     <row r="85">
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.4425083728797911</v>
+        <v>0.2838001656790805</v>
       </c>
     </row>
     <row r="86">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1930638456548631</v>
+        <v>0.3206883653349701</v>
       </c>
     </row>
     <row r="87">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.3744264572051331</v>
+        <v>0.3911846612461519</v>
       </c>
     </row>
     <row r="88">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1505948004133873</v>
+        <v>-0.1633177825191305</v>
       </c>
     </row>
     <row r="89">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3675943867404389</v>
+        <v>0.5316616966199789</v>
       </c>
     </row>
     <row r="90">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.3019664254781768</v>
+        <v>-0.3192663096432982</v>
       </c>
     </row>
     <row r="91">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.2745518967553374</v>
+        <v>0.3235329964801757</v>
       </c>
     </row>
     <row r="92">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0640963278924402</v>
+        <v>0.1235828208533401</v>
       </c>
     </row>
     <row r="93">
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.08389632933570369</v>
+        <v>-0.1166218028782367</v>
       </c>
     </row>
     <row r="94">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.4421629458002688</v>
+        <v>0.2354005443892545</v>
       </c>
     </row>
     <row r="95">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.2001093879454129</v>
+        <v>0.3097517825071761</v>
       </c>
     </row>
     <row r="96">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.3830991242698112</v>
+        <v>0.3707002577993543</v>
       </c>
     </row>
     <row r="97">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.1297223363591335</v>
+        <v>-0.142019334065598</v>
       </c>
     </row>
     <row r="98">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.3616732903823902</v>
+        <v>0.5014337723707819</v>
       </c>
     </row>
     <row r="99">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.4075764873407858</v>
+        <v>-0.3921248734970272</v>
       </c>
     </row>
     <row r="100">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3953380872954337</v>
+        <v>0.4272248701730535</v>
       </c>
     </row>
     <row r="101">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.08086043202147324</v>
+        <v>0.1228970160370862</v>
       </c>
     </row>
     <row r="102">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.100361102618546</v>
+        <v>-0.1218071409649474</v>
       </c>
     </row>
     <row r="103">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.4348629792400064</v>
+        <v>0.25573727019247</v>
       </c>
     </row>
     <row r="104">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.2271303489275023</v>
+        <v>0.331347252444922</v>
       </c>
     </row>
     <row r="105">
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.4018278350750987</v>
+        <v>0.3945571657991082</v>
       </c>
     </row>
     <row r="106">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.1577759594264803</v>
+        <v>-0.1605026098574876</v>
       </c>
     </row>
     <row r="107">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.373115628835603</v>
+        <v>0.5120664023971467</v>
       </c>
     </row>
     <row r="108">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.409543405362216</v>
+        <v>-0.4563243887805261</v>
       </c>
     </row>
     <row r="109">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.3886010281599396</v>
+        <v>0.5155096029286724</v>
       </c>
     </row>
   </sheetData>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1948990892495188</v>
+        <v>0.2311295118090808</v>
       </c>
     </row>
     <row r="3">
@@ -7848,7 +7848,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1390641264349945</v>
+        <v>-0.159476048389962</v>
       </c>
     </row>
     <row r="4">
@@ -7858,7 +7858,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2837731871058246</v>
+        <v>0.2517429916984794</v>
       </c>
     </row>
     <row r="5">
@@ -7868,7 +7868,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3058327980708033</v>
+        <v>0.4218969659647553</v>
       </c>
     </row>
     <row r="6">
@@ -7878,7 +7878,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3732219961645163</v>
+        <v>0.442813074826702</v>
       </c>
     </row>
     <row r="7">
@@ -7888,7 +7888,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.08780532472575446</v>
+        <v>-0.08816092591098157</v>
       </c>
     </row>
     <row r="8">
@@ -7898,7 +7898,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3381787690214313</v>
+        <v>0.4697329521017729</v>
       </c>
     </row>
     <row r="9">
@@ -7908,7 +7908,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.1798227159755318</v>
+        <v>-0.2711944690658166</v>
       </c>
     </row>
     <row r="10">
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1430302654426042</v>
+        <v>0.09458174885068237</v>
       </c>
     </row>
     <row r="11">
@@ -7928,7 +7928,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2972476304381396</v>
+        <v>0.3724959376775086</v>
       </c>
     </row>
     <row r="12">
@@ -7938,7 +7938,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.09912092007446299</v>
+        <v>-0.1447626815722828</v>
       </c>
     </row>
     <row r="13">
@@ -7948,7 +7948,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07923582309543054</v>
+        <v>0.1245260629058429</v>
       </c>
     </row>
     <row r="14">
@@ -7958,7 +7958,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3268884089865389</v>
+        <v>0.4368806886390803</v>
       </c>
     </row>
     <row r="15">
@@ -7968,7 +7968,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2427158515041806</v>
+        <v>0.3660787151292146</v>
       </c>
     </row>
     <row r="16">
@@ -7978,7 +7978,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1512910378633124</v>
+        <v>-0.2060736704052839</v>
       </c>
     </row>
     <row r="17">
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3523486687473255</v>
+        <v>0.4614480521526717</v>
       </c>
     </row>
     <row r="18">
@@ -7998,7 +7998,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.05677252166246017</v>
+        <v>-0.01334126021727327</v>
       </c>
     </row>
     <row r="19">
@@ -8008,7 +8008,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.178808441082092</v>
+        <v>-0.08735631806128441</v>
       </c>
     </row>
     <row r="20">
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.06416464847033025</v>
+        <v>0.1863706933673994</v>
       </c>
     </row>
     <row r="21">
@@ -8028,7 +8028,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.08828184345764942</v>
+        <v>-0.13354426514261</v>
       </c>
     </row>
     <row r="22">
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.584398333892859</v>
+        <v>0.5151021404129781</v>
       </c>
     </row>
     <row r="23">
@@ -8048,7 +8048,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1737052533682377</v>
+        <v>0.3353176028558794</v>
       </c>
     </row>
     <row r="24">
@@ -8058,7 +8058,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4772252824846127</v>
+        <v>0.5584123235394356</v>
       </c>
     </row>
     <row r="25">
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1183361369691397</v>
+        <v>-0.1533770528566339</v>
       </c>
     </row>
     <row r="26">
@@ -8078,7 +8078,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2861998829642943</v>
+        <v>0.469707844411652</v>
       </c>
     </row>
     <row r="27">
@@ -8088,7 +8088,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.3879901534470991</v>
+        <v>-0.3873920878806715</v>
       </c>
     </row>
     <row r="28">
@@ -8098,7 +8098,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3010712719077432</v>
+        <v>0.3996418133443846</v>
       </c>
     </row>
     <row r="29">
@@ -8108,7 +8108,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.08147904421433497</v>
+        <v>0.06378262716481835</v>
       </c>
     </row>
     <row r="30">
@@ -8118,7 +8118,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.09521112228176669</v>
+        <v>-0.1112521227605197</v>
       </c>
     </row>
     <row r="31">
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2664085336285753</v>
+        <v>0.05402364101885627</v>
       </c>
     </row>
     <row r="32">
@@ -8138,7 +8138,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1778601939012681</v>
+        <v>0.1785392733517638</v>
       </c>
     </row>
     <row r="33">
@@ -8148,7 +8148,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2315835335958177</v>
+        <v>0.1225541899899836</v>
       </c>
     </row>
     <row r="34">
@@ -8158,7 +8158,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.07706539602449117</v>
+        <v>-0.09766437213762486</v>
       </c>
     </row>
     <row r="35">
@@ -8168,7 +8168,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3053597566317985</v>
+        <v>0.3181234577495302</v>
       </c>
     </row>
     <row r="36">
@@ -8178,7 +8178,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.04691993122639532</v>
+        <v>-0.07561792652754735</v>
       </c>
     </row>
     <row r="37">
@@ -8188,7 +8188,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2005337920852441</v>
+        <v>0.1305272776541176</v>
       </c>
     </row>
     <row r="38">
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.02095494499938224</v>
+        <v>0.05998427648335192</v>
       </c>
     </row>
     <row r="39">
@@ -8208,7 +8208,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.1076911177769954</v>
+        <v>-0.1178037074528843</v>
       </c>
     </row>
     <row r="40">
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2598921673226954</v>
+        <v>0.1267938529470135</v>
       </c>
     </row>
     <row r="41">
@@ -8228,7 +8228,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.07525216348724717</v>
+        <v>0.1940295546475203</v>
       </c>
     </row>
     <row r="42">
@@ -8238,7 +8238,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1963027707250972</v>
+        <v>0.1998600849736692</v>
       </c>
     </row>
     <row r="43">
@@ -8248,7 +8248,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.1171289922997007</v>
+        <v>-0.09078668318014367</v>
       </c>
     </row>
     <row r="44">
@@ -8258,7 +8258,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.184491703370524</v>
+        <v>0.3121611971220536</v>
       </c>
     </row>
     <row r="45">
@@ -8268,7 +8268,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.203931608857287</v>
+        <v>-0.2153277163260466</v>
       </c>
     </row>
     <row r="46">
@@ -8278,7 +8278,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2394157901794653</v>
+        <v>0.3598383750262901</v>
       </c>
     </row>
     <row r="47">
@@ -8288,7 +8288,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.01732667894905334</v>
+        <v>-0.0904292960455248</v>
       </c>
     </row>
     <row r="48">
@@ -8298,7 +8298,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.1130251749701596</v>
+        <v>-0.1233086559783782</v>
       </c>
     </row>
     <row r="49">
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2955738514091755</v>
+        <v>0.07999234737718604</v>
       </c>
     </row>
     <row r="50">
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1639705181760316</v>
+        <v>0.09111255308731277</v>
       </c>
     </row>
     <row r="51">
@@ -8328,7 +8328,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2708817558380231</v>
+        <v>0.09901053399537935</v>
       </c>
     </row>
     <row r="52">
@@ -8338,7 +8338,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.1034773039743431</v>
+        <v>-0.08881872867159919</v>
       </c>
     </row>
     <row r="53">
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3243752101635324</v>
+        <v>0.2577237794864167</v>
       </c>
     </row>
     <row r="54">
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.4246837622323695</v>
+        <v>-0.4589310372197247</v>
       </c>
     </row>
     <row r="55">
@@ -8368,7 +8368,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2508898541210421</v>
+        <v>0.3374689426509467</v>
       </c>
     </row>
     <row r="56">
@@ -8378,7 +8378,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.06142541704178354</v>
+        <v>0.08384946823120458</v>
       </c>
     </row>
     <row r="57">
@@ -8388,7 +8388,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.145915817611996</v>
+        <v>-0.1607949609878491</v>
       </c>
     </row>
     <row r="58">
@@ -8398,7 +8398,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1945048847033002</v>
+        <v>0.09819417219746647</v>
       </c>
     </row>
     <row r="59">
@@ -8408,7 +8408,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.09887877257589557</v>
+        <v>0.1781494397247334</v>
       </c>
     </row>
     <row r="60">
@@ -8418,7 +8418,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1535894769158382</v>
+        <v>0.1592512646240355</v>
       </c>
     </row>
     <row r="61">
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.1713794932472547</v>
+        <v>-0.190016778650374</v>
       </c>
     </row>
     <row r="62">
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.140400688094482</v>
+        <v>0.2508919579479505</v>
       </c>
     </row>
     <row r="63">
@@ -8448,7 +8448,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01450810476912637</v>
+        <v>-0.04233934642544179</v>
       </c>
     </row>
     <row r="64">
@@ -8458,7 +8458,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1817960503342155</v>
+        <v>0.2318130930952868</v>
       </c>
     </row>
     <row r="65">
@@ -8468,7 +8468,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1948990892495188</v>
+        <v>0.231129511809081</v>
       </c>
     </row>
     <row r="66">
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.1390641264349943</v>
+        <v>-0.159476048389962</v>
       </c>
     </row>
     <row r="67">
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.2837731871058247</v>
+        <v>0.2517429916984792</v>
       </c>
     </row>
     <row r="68">
@@ -8498,7 +8498,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.3058327980708035</v>
+        <v>0.4218969659647554</v>
       </c>
     </row>
     <row r="69">
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3732219961645163</v>
+        <v>0.442813074826702</v>
       </c>
     </row>
     <row r="70">
@@ -8518,7 +8518,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.08780532472575442</v>
+        <v>-0.08816092591098164</v>
       </c>
     </row>
     <row r="71">
@@ -8528,7 +8528,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.338178769021432</v>
+        <v>0.4697329521017728</v>
       </c>
     </row>
     <row r="72">
@@ -8538,7 +8538,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.1798227159755321</v>
+        <v>-0.2711944690658166</v>
       </c>
     </row>
     <row r="73">
@@ -8548,7 +8548,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1430302654426042</v>
+        <v>0.0945817488506823</v>
       </c>
     </row>
     <row r="74">
@@ -8558,7 +8558,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.3201305466653183</v>
+        <v>0.3917345194663551</v>
       </c>
     </row>
     <row r="75">
@@ -8568,7 +8568,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.1276402892313541</v>
+        <v>-0.1623744468864227</v>
       </c>
     </row>
     <row r="76">
@@ -8578,7 +8578,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.2583037327250679</v>
+        <v>0.2672928429221618</v>
       </c>
     </row>
     <row r="77">
@@ -8588,7 +8588,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.4036211976201441</v>
+        <v>0.530466803412308</v>
       </c>
     </row>
     <row r="78">
@@ -8598,7 +8598,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.4065647568541633</v>
+        <v>0.5233829643653388</v>
       </c>
     </row>
     <row r="79">
@@ -8608,7 +8608,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.1266371333191153</v>
+        <v>-0.1549456666022315</v>
       </c>
     </row>
     <row r="80">
@@ -8618,7 +8618,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.4552358750052076</v>
+        <v>0.586704174653208</v>
       </c>
     </row>
     <row r="81">
@@ -8628,7 +8628,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.1069609262901494</v>
+        <v>-0.2426361805572989</v>
       </c>
     </row>
     <row r="82">
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.04050565838412675</v>
+        <v>0.04260485949982467</v>
       </c>
     </row>
     <row r="83">
@@ -8648,7 +8648,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.2066623652193871</v>
+        <v>0.3248491291023628</v>
       </c>
     </row>
     <row r="84">
@@ -8658,7 +8658,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.1108311883440254</v>
+        <v>-0.1524935023317214</v>
       </c>
     </row>
     <row r="85">
@@ -8668,7 +8668,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.5179353782425402</v>
+        <v>0.4789381226910061</v>
       </c>
     </row>
     <row r="86">
@@ -8678,7 +8678,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.3211259000562878</v>
+        <v>0.4834497160240542</v>
       </c>
     </row>
     <row r="87">
@@ -8688,7 +8688,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4888324336971095</v>
+        <v>0.5926794172160883</v>
       </c>
     </row>
     <row r="88">
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.1358661843665147</v>
+        <v>-0.1667780602877261</v>
       </c>
     </row>
     <row r="89">
@@ -8708,7 +8708,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.4135536711836382</v>
+        <v>0.5799784257735543</v>
       </c>
     </row>
     <row r="90">
@@ -8718,7 +8718,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.3506353020449195</v>
+        <v>-0.4180023264254927</v>
       </c>
     </row>
     <row r="91">
@@ -8728,7 +8728,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1981319711765971</v>
+        <v>0.2600900012729061</v>
       </c>
     </row>
     <row r="92">
@@ -8738,7 +8738,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1594730514471814</v>
+        <v>0.2158000102013146</v>
       </c>
     </row>
     <row r="93">
@@ -8748,7 +8748,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.1068114141327879</v>
+        <v>-0.1377968249261333</v>
       </c>
     </row>
     <row r="94">
@@ -8758,7 +8758,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.4781052835675202</v>
+        <v>0.3284275455117192</v>
       </c>
     </row>
     <row r="95">
@@ -8768,7 +8768,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.2931826759617808</v>
+        <v>0.3996815031801806</v>
       </c>
     </row>
     <row r="96">
@@ -8778,7 +8778,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.4455004811148197</v>
+        <v>0.4812801812135511</v>
       </c>
     </row>
     <row r="97">
@@ -8788,7 +8788,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.1196828782751253</v>
+        <v>-0.1482639142187599</v>
       </c>
     </row>
     <row r="98">
@@ -8798,7 +8798,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.4323809356452643</v>
+        <v>0.5553231486044755</v>
       </c>
     </row>
     <row r="99">
@@ -8808,7 +8808,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.2842184300737134</v>
+        <v>-0.3529405903579609</v>
       </c>
     </row>
     <row r="100">
@@ -8818,7 +8818,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.2744286996929445</v>
+        <v>0.2913071816633229</v>
       </c>
     </row>
     <row r="101">
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1109004219841225</v>
+        <v>0.1843553674578442</v>
       </c>
     </row>
     <row r="102">
@@ -8838,7 +8838,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.1105262271409678</v>
+        <v>-0.1356422602716466</v>
       </c>
     </row>
     <row r="103">
@@ -8848,7 +8848,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.4561205996024106</v>
+        <v>0.2885719198358125</v>
       </c>
     </row>
     <row r="104">
@@ -8858,7 +8858,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.2652045908114138</v>
+        <v>0.3956447768479579</v>
       </c>
     </row>
     <row r="105">
@@ -8868,7 +8868,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.4443378402689206</v>
+        <v>0.4752179571611279</v>
       </c>
     </row>
     <row r="106">
@@ -8878,7 +8878,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.1278640589552121</v>
+        <v>-0.1397188685309113</v>
       </c>
     </row>
     <row r="107">
@@ -8888,7 +8888,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.4329565213661973</v>
+        <v>0.5730691652515005</v>
       </c>
     </row>
     <row r="108">
@@ -8898,7 +8898,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.3437617538079669</v>
+        <v>-0.404227390230601</v>
       </c>
     </row>
     <row r="109">
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.3436848418793958</v>
+        <v>0.4045792632153358</v>
       </c>
     </row>
     <row r="110">
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.0840755679458495</v>
+        <v>0.1245069225395753</v>
       </c>
     </row>
     <row r="111">
@@ -8928,7 +8928,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.1117449394396081</v>
+        <v>-0.1334103789119627</v>
       </c>
     </row>
     <row r="112">
@@ -8938,7 +8938,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.4599971153211563</v>
+        <v>0.257796550272077</v>
       </c>
     </row>
     <row r="113">
@@ -8948,7 +8948,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.2682464205265874</v>
+        <v>0.365901615413917</v>
       </c>
     </row>
     <row r="114">
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.450871167200098</v>
+        <v>0.4465544115757545</v>
       </c>
     </row>
     <row r="115">
@@ -8968,7 +8968,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.1234875449235903</v>
+        <v>-0.1286315134821467</v>
       </c>
     </row>
     <row r="116">
@@ -8978,7 +8978,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.4659933096150698</v>
+        <v>0.5764430772422855</v>
       </c>
     </row>
     <row r="117">
@@ -8988,7 +8988,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.4594125288632748</v>
+        <v>-0.5180702401176729</v>
       </c>
     </row>
     <row r="118">
@@ -8998,7 +8998,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.4066113783730771</v>
+        <v>0.4837547753318474</v>
       </c>
     </row>
     <row r="119">
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.08043626371597125</v>
+        <v>0.1201250063090513</v>
       </c>
     </row>
     <row r="120">
@@ -9018,7 +9018,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.1209483489441194</v>
+        <v>-0.1410171698887777</v>
       </c>
     </row>
     <row r="121">
@@ -9028,7 +9028,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.4542409606051075</v>
+        <v>0.2510366869216435</v>
       </c>
     </row>
     <row r="122">
@@ -9038,7 +9038,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.2544697771329935</v>
+        <v>0.3587822850142451</v>
       </c>
     </row>
     <row r="123">
@@ -9048,7 +9048,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.4385146937566299</v>
+        <v>0.436002518642544</v>
       </c>
     </row>
     <row r="124">
@@ -9058,7 +9058,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.1406557344548488</v>
+        <v>-0.1481434448131332</v>
       </c>
     </row>
     <row r="125">
@@ -9068,7 +9068,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.4268778899185861</v>
+        <v>0.5500933555814727</v>
       </c>
     </row>
     <row r="126">
@@ -9078,7 +9078,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.4508000671990783</v>
+        <v>-0.5224893215332266</v>
       </c>
     </row>
     <row r="127">
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.4244456449434596</v>
+        <v>0.5059752973084948</v>
       </c>
     </row>
   </sheetData>
@@ -9124,7 +9124,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2696060885086832</v>
+        <v>-0.1971721113306338</v>
       </c>
     </row>
     <row r="3">
@@ -9134,7 +9134,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01878649184866229</v>
+        <v>-0.07289588139229354</v>
       </c>
     </row>
     <row r="4">
@@ -9144,7 +9144,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1882545495935611</v>
+        <v>-0.1009225462949972</v>
       </c>
     </row>
     <row r="5">
@@ -9154,7 +9154,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2894331545879811</v>
+        <v>-0.1194065856831606</v>
       </c>
     </row>
     <row r="6">
@@ -9164,7 +9164,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0039448805996532</v>
+        <v>-0.1826306546111499</v>
       </c>
     </row>
     <row r="7">
@@ -9174,7 +9174,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06743555368986044</v>
+        <v>-0.02599590351762372</v>
       </c>
     </row>
     <row r="8">
@@ -9184,7 +9184,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3016128348990476</v>
+        <v>-0.06350232129743934</v>
       </c>
     </row>
     <row r="9">
@@ -9194,7 +9194,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.004018296782138215</v>
+        <v>-0.0858096891969977</v>
       </c>
     </row>
     <row r="10">
@@ -9204,7 +9204,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1567753723903062</v>
+        <v>0.3915945484120556</v>
       </c>
     </row>
     <row r="11">
@@ -9214,7 +9214,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1477215053714595</v>
+        <v>-0.1013362536905431</v>
       </c>
     </row>
     <row r="12">
@@ -9224,7 +9224,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1315449673307331</v>
+        <v>0.08570214257648627</v>
       </c>
     </row>
     <row r="13">
@@ -9234,7 +9234,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5105421739674433</v>
+        <v>0.4843507630651446</v>
       </c>
     </row>
     <row r="14">
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.04181395934241527</v>
+        <v>0.07423030883430984</v>
       </c>
     </row>
     <row r="15">
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4009130880875141</v>
+        <v>0.4698108510271227</v>
       </c>
     </row>
     <row r="16">
@@ -9264,7 +9264,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1158768157867156</v>
+        <v>0.0768762443525141</v>
       </c>
     </row>
     <row r="17">
@@ -9274,7 +9274,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.149193691493877</v>
+        <v>0.2773413347005773</v>
       </c>
     </row>
     <row r="18">
@@ -9284,7 +9284,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.3374773421698011</v>
+        <v>-0.4420311749328226</v>
       </c>
     </row>
     <row r="19">
@@ -9294,7 +9294,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2502531971131107</v>
+        <v>0.1858185885846478</v>
       </c>
     </row>
     <row r="20">
@@ -9304,7 +9304,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.353876842844126</v>
+        <v>0.4329088668626731</v>
       </c>
     </row>
     <row r="21">
@@ -9314,7 +9314,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01030084170173598</v>
+        <v>-0.04952256650491352</v>
       </c>
     </row>
     <row r="22">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3159284442283808</v>
+        <v>0.313440465225711</v>
       </c>
     </row>
     <row r="23">
@@ -9334,7 +9334,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3938430140186911</v>
+        <v>0.5279749649928497</v>
       </c>
     </row>
     <row r="24">
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4212239690597502</v>
+        <v>0.5255820778793653</v>
       </c>
     </row>
     <row r="25">
@@ -9354,7 +9354,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.006023341568640265</v>
+        <v>-0.05826641369337874</v>
       </c>
     </row>
     <row r="26">
@@ -9364,7 +9364,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3917883875255073</v>
+        <v>0.54093355331641</v>
       </c>
     </row>
     <row r="27">
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1565616404861515</v>
+        <v>-0.2844198337007346</v>
       </c>
     </row>
     <row r="28">
@@ -9384,7 +9384,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.233663556802453</v>
+        <v>-0.1784613702796508</v>
       </c>
     </row>
     <row r="29">
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1296943918365091</v>
+        <v>0.1807643410817263</v>
       </c>
     </row>
     <row r="30">
@@ -9404,7 +9404,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.01558685324375771</v>
+        <v>-0.086843798607802</v>
       </c>
     </row>
     <row r="31">
@@ -9414,7 +9414,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3777223378904501</v>
+        <v>0.2829546954846437</v>
       </c>
     </row>
     <row r="32">
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.1844005431957325</v>
+        <v>0.2777538146653069</v>
       </c>
     </row>
     <row r="33">
@@ -9434,7 +9434,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3258666313605485</v>
+        <v>0.3588483885154867</v>
       </c>
     </row>
     <row r="34">
@@ -9444,7 +9444,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00530827116807926</v>
+        <v>-0.08157562963328646</v>
       </c>
     </row>
     <row r="35">
@@ -9454,7 +9454,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2136093856945904</v>
+        <v>0.3465975543949394</v>
       </c>
     </row>
     <row r="36">
@@ -9464,7 +9464,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01065932095285472</v>
+        <v>-0.04957487657002617</v>
       </c>
     </row>
     <row r="37">
@@ -9474,7 +9474,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3831301962584928</v>
+        <v>0.4383809956114846</v>
       </c>
     </row>
     <row r="38">
@@ -9484,7 +9484,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.04999925140332946</v>
+        <v>0.05938583762067771</v>
       </c>
     </row>
     <row r="39">
@@ -9494,7 +9494,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.02747111440993856</v>
+        <v>-0.03705514136117662</v>
       </c>
     </row>
     <row r="40">
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3927512205069855</v>
+        <v>0.2194079520109511</v>
       </c>
     </row>
     <row r="41">
@@ -9514,7 +9514,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2061290237776964</v>
+        <v>0.2489308316417398</v>
       </c>
     </row>
     <row r="42">
@@ -9524,7 +9524,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3568937419599234</v>
+        <v>0.2798025277835211</v>
       </c>
     </row>
     <row r="43">
@@ -9534,7 +9534,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.04373700314418334</v>
+        <v>0.002382600952945332</v>
       </c>
     </row>
     <row r="44">
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3709495840334507</v>
+        <v>0.4399514269866289</v>
       </c>
     </row>
     <row r="45">
@@ -9554,7 +9554,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.3827481085425217</v>
+        <v>-0.3820380889700268</v>
       </c>
     </row>
     <row r="46">
@@ -9564,7 +9564,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2061488264193342</v>
+        <v>0.2925381700543911</v>
       </c>
     </row>
     <row r="47">
@@ -9574,7 +9574,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.03226873674572992</v>
+        <v>-0.03496329996680306</v>
       </c>
     </row>
     <row r="48">
@@ -9584,7 +9584,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.04926988822194025</v>
+        <v>-0.006058782536921561</v>
       </c>
     </row>
     <row r="49">
@@ -9594,7 +9594,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1809625418528411</v>
+        <v>-0.05455686398730757</v>
       </c>
     </row>
     <row r="50">
@@ -9604,7 +9604,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.02047955189839325</v>
+        <v>-0.001262723271698938</v>
       </c>
     </row>
     <row r="51">
@@ -9614,7 +9614,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.1224667223692634</v>
+        <v>0.01174748427723315</v>
       </c>
     </row>
     <row r="52">
@@ -9624,7 +9624,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.08973952243786132</v>
+        <v>0.04190103550676939</v>
       </c>
     </row>
     <row r="53">
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0007414824057204384</v>
+        <v>0.004554724745282677</v>
       </c>
     </row>
     <row r="54">
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.2192391584056779</v>
+        <v>-0.1581332423779339</v>
       </c>
     </row>
     <row r="55">
@@ -9654,7 +9654,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4648321381238653</v>
+        <v>0.2880031909080464</v>
       </c>
     </row>
     <row r="56">
@@ -9664,7 +9664,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2289186544534841</v>
+        <v>0.1945797987974408</v>
       </c>
     </row>
     <row r="57">
@@ -9674,7 +9674,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.05720669461988065</v>
+        <v>-0.06227422500088878</v>
       </c>
     </row>
     <row r="58">
@@ -9684,7 +9684,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.3410074060821382</v>
+        <v>0.296627080211767</v>
       </c>
     </row>
     <row r="59">
@@ -9694,7 +9694,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3073015095522588</v>
+        <v>0.3407969216911942</v>
       </c>
     </row>
     <row r="60">
@@ -9704,7 +9704,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.3566863664499552</v>
+        <v>0.356573505941179</v>
       </c>
     </row>
     <row r="61">
@@ -9714,7 +9714,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.1477353656189921</v>
+        <v>-0.1314480522224497</v>
       </c>
     </row>
     <row r="62">
@@ -9724,7 +9724,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3142791042651219</v>
+        <v>0.4088166781146738</v>
       </c>
     </row>
     <row r="63">
@@ -9734,7 +9734,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.1282293666324141</v>
+        <v>-0.3455862305692213</v>
       </c>
     </row>
     <row r="64">
@@ -9744,7 +9744,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.0245416132090671</v>
+        <v>0.3019020525138076</v>
       </c>
     </row>
     <row r="65">
@@ -9754,7 +9754,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.2696060885086833</v>
+        <v>-0.1971721113306334</v>
       </c>
     </row>
     <row r="66">
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.01878649184866234</v>
+        <v>-0.07289588139229353</v>
       </c>
     </row>
     <row r="67">
@@ -9774,7 +9774,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1882545495935618</v>
+        <v>-0.3613664526545115</v>
       </c>
     </row>
     <row r="68">
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.2894331545879816</v>
+        <v>-0.1194065856831602</v>
       </c>
     </row>
     <row r="69">
@@ -9794,7 +9794,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.003944880599653222</v>
+        <v>-0.4047243342684537</v>
       </c>
     </row>
     <row r="70">
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.06743555368986044</v>
+        <v>-0.02599590351762376</v>
       </c>
     </row>
     <row r="71">
@@ -9814,7 +9814,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.3016128348990474</v>
+        <v>-0.06350232129743913</v>
       </c>
     </row>
     <row r="72">
@@ -9824,7 +9824,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.004018296782138348</v>
+        <v>-0.08580968919699772</v>
       </c>
     </row>
     <row r="73">
@@ -9834,7 +9834,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1567753723903061</v>
+        <v>0.3915945484120555</v>
       </c>
     </row>
     <row r="74">
@@ -9844,7 +9844,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.2387850846808594</v>
+        <v>-0.1698634577280738</v>
       </c>
     </row>
     <row r="75">
@@ -9854,7 +9854,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0857499082718539</v>
+        <v>0.01540627860726073</v>
       </c>
     </row>
     <row r="76">
@@ -9864,7 +9864,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.4608643667734646</v>
+        <v>-0.03522638987627891</v>
       </c>
     </row>
     <row r="77">
@@ -9874,7 +9874,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.1794220531583832</v>
+        <v>-0.01117679748927901</v>
       </c>
     </row>
     <row r="78">
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.2507922582028562</v>
+        <v>-0.07442569480507298</v>
       </c>
     </row>
     <row r="79">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1050758036045516</v>
+        <v>0.04183626827185279</v>
       </c>
     </row>
     <row r="80">
@@ -9904,7 +9904,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.08611323548602966</v>
+        <v>0.1328520320210982</v>
       </c>
     </row>
     <row r="81">
@@ -9914,7 +9914,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.2509812125732438</v>
+        <v>-0.3794547935421707</v>
       </c>
     </row>
     <row r="82">
@@ -9924,7 +9924,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.2773399135060595</v>
+        <v>0.3470534447678523</v>
       </c>
     </row>
     <row r="83">
@@ -9934,7 +9934,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1243166924967782</v>
+        <v>0.2273308504484983</v>
       </c>
     </row>
     <row r="84">
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.04941421478161774</v>
+        <v>-0.01721196675697744</v>
       </c>
     </row>
     <row r="85">
@@ -9954,7 +9954,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.4683526340216833</v>
+        <v>0.1599638416612735</v>
       </c>
     </row>
     <row r="86">
@@ -9964,7 +9964,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.2292117582393917</v>
+        <v>0.4196787635162713</v>
       </c>
     </row>
     <row r="87">
@@ -9974,7 +9974,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.4380425943555366</v>
+        <v>0.3670002972565203</v>
       </c>
     </row>
     <row r="88">
@@ -9984,7 +9984,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.05133062799082309</v>
+        <v>-0.008463098354186713</v>
       </c>
     </row>
     <row r="89">
@@ -9994,7 +9994,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.2818812400091154</v>
+        <v>0.4935352458142943</v>
       </c>
     </row>
     <row r="90">
@@ -10004,7 +10004,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.268033047135134</v>
+        <v>-0.422623266494597</v>
       </c>
     </row>
     <row r="91">
@@ -10014,7 +10014,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.1492699826438605</v>
+        <v>0.2329404774222327</v>
       </c>
     </row>
     <row r="92">
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.1392905641105609</v>
+        <v>0.2178926943872997</v>
       </c>
     </row>
     <row r="93">
@@ -10034,7 +10034,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.02038134142316904</v>
+        <v>-0.04984026379746729</v>
       </c>
     </row>
     <row r="94">
@@ -10044,7 +10044,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.4777557188628861</v>
+        <v>0.248776789665287</v>
       </c>
     </row>
     <row r="95">
@@ -10054,7 +10054,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.2205494604562356</v>
+        <v>0.3663232144743614</v>
       </c>
     </row>
     <row r="96">
@@ -10064,7 +10064,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.4167860354567023</v>
+        <v>0.3960612782694</v>
       </c>
     </row>
     <row r="97">
@@ -10074,7 +10074,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.03034892624777065</v>
+        <v>-0.04325920641677821</v>
       </c>
     </row>
     <row r="98">
@@ -10084,7 +10084,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.2696001166914823</v>
+        <v>0.4530299777079551</v>
       </c>
     </row>
     <row r="99">
@@ -10094,7 +10094,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.1953018793348458</v>
+        <v>-0.3504219355596324</v>
       </c>
     </row>
     <row r="100">
@@ -10104,7 +10104,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3234173327374762</v>
+        <v>0.4117992740888817</v>
       </c>
     </row>
     <row r="101">
@@ -10114,7 +10114,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.1197272390744836</v>
+        <v>0.1797847962010433</v>
       </c>
     </row>
     <row r="102">
@@ -10124,7 +10124,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.00774998127623122</v>
+        <v>-0.04691988607497612</v>
       </c>
     </row>
     <row r="103">
@@ -10134,7 +10134,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.5067139489679529</v>
+        <v>0.2681339784064954</v>
       </c>
     </row>
     <row r="104">
@@ -10144,7 +10144,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.2628948672235963</v>
+        <v>0.3919914272222551</v>
       </c>
     </row>
     <row r="105">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.4692541702517822</v>
+        <v>0.4273577151924356</v>
       </c>
     </row>
     <row r="106">
@@ -10164,7 +10164,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.01145879167675147</v>
+        <v>-0.03269867572265271</v>
       </c>
     </row>
     <row r="107">
@@ -10174,7 +10174,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.3749230213700926</v>
+        <v>0.5354390388470304</v>
       </c>
     </row>
     <row r="108">
@@ -10184,7 +10184,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.3227164928819544</v>
+        <v>-0.4366509865686721</v>
       </c>
     </row>
     <row r="109">
@@ -10194,7 +10194,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.3872145308405866</v>
+        <v>0.4925936552513235</v>
       </c>
     </row>
     <row r="110">
@@ -10204,7 +10204,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.08244156547098393</v>
+        <v>0.1289094513254364</v>
       </c>
     </row>
     <row r="111">
@@ -10214,7 +10214,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0158202050758457</v>
+        <v>-0.03885209721687177</v>
       </c>
     </row>
     <row r="112">
@@ -10224,7 +10224,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.4557606478831207</v>
+        <v>0.1914804666823524</v>
       </c>
     </row>
     <row r="113">
@@ -10234,7 +10234,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.2068094979921146</v>
+        <v>0.3239873013520122</v>
       </c>
     </row>
     <row r="114">
@@ -10244,7 +10244,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.4382094266794432</v>
+        <v>0.3750553100082377</v>
       </c>
     </row>
     <row r="115">
@@ -10254,7 +10254,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.02954810760783928</v>
+        <v>-0.01580240781956312</v>
       </c>
     </row>
     <row r="116">
@@ -10264,7 +10264,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.3203619394103831</v>
+        <v>0.4724044509346531</v>
       </c>
     </row>
     <row r="117">
@@ -10274,7 +10274,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.3672908643078963</v>
+        <v>-0.4497450128639803</v>
       </c>
     </row>
     <row r="118">
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.4987980004564743</v>
+        <v>0.5527746678681459</v>
       </c>
     </row>
     <row r="119">
@@ -10294,7 +10294,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.1233351418037348</v>
+        <v>0.1529898262886239</v>
       </c>
     </row>
     <row r="120">
@@ -10304,7 +10304,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.002231227140642632</v>
+        <v>-0.04354211190902152</v>
       </c>
     </row>
     <row r="121">
@@ -10314,7 +10314,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.4771539329869843</v>
+        <v>0.2343269238673288</v>
       </c>
     </row>
     <row r="122">
@@ -10324,7 +10324,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.2629911853777825</v>
+        <v>0.3699613872348937</v>
       </c>
     </row>
     <row r="123">
@@ -10334,7 +10334,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.4761735171918313</v>
+        <v>0.4181765437576892</v>
       </c>
     </row>
     <row r="124">
@@ -10344,7 +10344,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.008127767907494959</v>
+        <v>-0.04161365781014791</v>
       </c>
     </row>
     <row r="125">
@@ -10354,7 +10354,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.372404052597005</v>
+        <v>0.5202514743810963</v>
       </c>
     </row>
     <row r="126">
@@ -10364,7 +10364,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.4071862110963534</v>
+        <v>-0.5254992771748077</v>
       </c>
     </row>
     <row r="127">
@@ -10374,7 +10374,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.4914083814116298</v>
+        <v>0.6058769013707055</v>
       </c>
     </row>
   </sheetData>
@@ -10410,7 +10410,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2349493177251602</v>
+        <v>0.02349428180319281</v>
       </c>
     </row>
     <row r="3">
@@ -10420,7 +10420,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04853471081183186</v>
+        <v>-0.1000771710633902</v>
       </c>
     </row>
     <row r="4">
@@ -10430,7 +10430,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1588749826764044</v>
+        <v>0.08890129772704963</v>
       </c>
     </row>
     <row r="5">
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1820780807316038</v>
+        <v>0.05366913346463172</v>
       </c>
     </row>
     <row r="6">
@@ -10450,7 +10450,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03637125654884308</v>
+        <v>0.1655237267894653</v>
       </c>
     </row>
     <row r="7">
@@ -10460,7 +10460,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03372997272778177</v>
+        <v>-0.1325727430431499</v>
       </c>
     </row>
     <row r="8">
@@ -10470,7 +10470,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1251535778094049</v>
+        <v>0.13437167531306</v>
       </c>
     </row>
     <row r="9">
@@ -10480,7 +10480,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2928585043076948</v>
+        <v>-0.08980148737920085</v>
       </c>
     </row>
     <row r="10">
@@ -10490,7 +10490,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1261461175010563</v>
+        <v>0.0336652808566912</v>
       </c>
     </row>
     <row r="11">
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1661695001672585</v>
+        <v>0.1046976767292042</v>
       </c>
     </row>
     <row r="12">
@@ -10510,7 +10510,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1512065105744864</v>
+        <v>-0.02377302481406544</v>
       </c>
     </row>
     <row r="13">
@@ -10520,7 +10520,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06520980625962643</v>
+        <v>-0.03353880412966898</v>
       </c>
     </row>
     <row r="14">
@@ -10530,7 +10530,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.2093983967893537</v>
+        <v>0.1560782606339806</v>
       </c>
     </row>
     <row r="15">
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.06557131021012598</v>
+        <v>0.100554303785262</v>
       </c>
     </row>
     <row r="16">
@@ -10550,7 +10550,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1596688730209047</v>
+        <v>0.006048220549368408</v>
       </c>
     </row>
     <row r="17">
@@ -10560,7 +10560,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2746200305411665</v>
+        <v>0.1291256911822485</v>
       </c>
     </row>
     <row r="18">
@@ -10570,7 +10570,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.05269460888412858</v>
+        <v>-0.02903389986394701</v>
       </c>
     </row>
     <row r="19">
@@ -10580,7 +10580,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.08999609872164985</v>
+        <v>-0.09490042712028073</v>
       </c>
     </row>
     <row r="20">
@@ -10590,7 +10590,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.05636055057579521</v>
+        <v>-0.1864935552807168</v>
       </c>
     </row>
     <row r="21">
@@ -10600,7 +10600,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1473210058172293</v>
+        <v>0.02207638221927112</v>
       </c>
     </row>
     <row r="22">
@@ -10610,7 +10610,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3501502720004042</v>
+        <v>0.3903153532770999</v>
       </c>
     </row>
     <row r="23">
@@ -10620,7 +10620,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.05642842636667848</v>
+        <v>0.07993916421914833</v>
       </c>
     </row>
     <row r="24">
@@ -10630,7 +10630,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2610188752472674</v>
+        <v>0.3402617476072282</v>
       </c>
     </row>
     <row r="25">
@@ -10640,7 +10640,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.166189543784598</v>
+        <v>0.06612756406791656</v>
       </c>
     </row>
     <row r="26">
@@ -10650,7 +10650,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.03721295805917849</v>
+        <v>0.2572742896566674</v>
       </c>
     </row>
     <row r="27">
@@ -10660,7 +10660,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.313909692024761</v>
+        <v>-0.6101801234379539</v>
       </c>
     </row>
     <row r="28">
@@ -10670,7 +10670,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.001206857950137605</v>
+        <v>0.4055352238809617</v>
       </c>
     </row>
     <row r="29">
@@ -10680,7 +10680,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.04580517229229947</v>
+        <v>-0.009921644641292266</v>
       </c>
     </row>
     <row r="30">
@@ -10690,7 +10690,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.06184863231408232</v>
+        <v>-0.0938094378641073</v>
       </c>
     </row>
     <row r="31">
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3862194468106648</v>
+        <v>0.3424893252755783</v>
       </c>
     </row>
     <row r="32">
@@ -10710,7 +10710,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.08398566262504711</v>
+        <v>0.1026038127154776</v>
       </c>
     </row>
     <row r="33">
@@ -10720,7 +10720,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2572009882865494</v>
+        <v>0.2586175196661619</v>
       </c>
     </row>
     <row r="34">
@@ -10730,7 +10730,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.07935349831957832</v>
+        <v>-0.05820562591149688</v>
       </c>
     </row>
     <row r="35">
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1497299335324436</v>
+        <v>0.271855912694457</v>
       </c>
     </row>
     <row r="36">
@@ -10750,7 +10750,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.3422571012973797</v>
+        <v>-0.4315374816135251</v>
       </c>
     </row>
     <row r="37">
@@ -10760,7 +10760,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1164414113404077</v>
+        <v>0.4552402691720397</v>
       </c>
     </row>
     <row r="38">
@@ -10770,7 +10770,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.05591460804474952</v>
+        <v>-0.05713727333269059</v>
       </c>
     </row>
     <row r="39">
@@ -10780,7 +10780,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.1382357974468758</v>
+        <v>-0.02319035997758029</v>
       </c>
     </row>
     <row r="40">
@@ -10790,7 +10790,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2307765766435039</v>
+        <v>-0.05946706299484231</v>
       </c>
     </row>
     <row r="41">
@@ -10800,7 +10800,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.07467188921341837</v>
+        <v>-0.03717098086841896</v>
       </c>
     </row>
     <row r="42">
@@ -10810,7 +10810,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.1503872691950146</v>
+        <v>-0.07985580730143058</v>
       </c>
     </row>
     <row r="43">
@@ -10820,7 +10820,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2223711365378937</v>
+        <v>0.05585399217087209</v>
       </c>
     </row>
     <row r="44">
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1720626475300397</v>
+        <v>0.05005376985671212</v>
       </c>
     </row>
     <row r="45">
@@ -10840,7 +10840,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.04586418942481135</v>
+        <v>-0.06526300455672603</v>
       </c>
     </row>
     <row r="46">
@@ -10850,7 +10850,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.1507399830837449</v>
+        <v>-0.0540522747069578</v>
       </c>
     </row>
     <row r="47">
@@ -10860,7 +10860,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2689116301394746</v>
+        <v>0.1369727035778878</v>
       </c>
     </row>
     <row r="48">
@@ -10870,7 +10870,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1489901019333374</v>
+        <v>-0.01965572725624178</v>
       </c>
     </row>
     <row r="49">
@@ -10880,7 +10880,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1180936244076105</v>
+        <v>0.08182664149931507</v>
       </c>
     </row>
     <row r="50">
@@ -10890,7 +10890,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3019118335156672</v>
+        <v>0.2252561985972667</v>
       </c>
     </row>
     <row r="51">
@@ -10900,7 +10900,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2588182327608876</v>
+        <v>0.1977898597304373</v>
       </c>
     </row>
     <row r="52">
@@ -10910,7 +10910,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1866937058118078</v>
+        <v>0.03975379441679022</v>
       </c>
     </row>
     <row r="53">
@@ -10920,7 +10920,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2559505643674627</v>
+        <v>0.2459635390256404</v>
       </c>
     </row>
     <row r="54">
@@ -10930,7 +10930,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04819773099965945</v>
+        <v>-0.2207518365333992</v>
       </c>
     </row>
     <row r="55">
@@ -10940,7 +10940,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.003164548051223676</v>
+        <v>0.3397992128485655</v>
       </c>
     </row>
     <row r="56">
@@ -10950,7 +10950,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3520709217337986</v>
+        <v>0.02116833030006523</v>
       </c>
     </row>
     <row r="57">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.1034911468170384</v>
+        <v>-0.05902378218505669</v>
       </c>
     </row>
     <row r="58">
@@ -10970,7 +10970,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.338737161024121</v>
+        <v>0.07854271094865059</v>
       </c>
     </row>
     <row r="59">
@@ -10980,7 +10980,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4698613541786309</v>
+        <v>0.1184075294492386</v>
       </c>
     </row>
     <row r="60">
@@ -10990,7 +10990,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.4985789239691615</v>
+        <v>0.1305689184723791</v>
       </c>
     </row>
     <row r="61">
@@ -11000,7 +11000,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1426689411646744</v>
+        <v>-0.008067100682956702</v>
       </c>
     </row>
     <row r="62">
@@ -11010,7 +11010,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.451539493580684</v>
+        <v>0.1735159261456233</v>
       </c>
     </row>
     <row r="63">
@@ -11020,7 +11020,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.4439557424280747</v>
+        <v>-0.3975704245360746</v>
       </c>
     </row>
     <row r="64">
@@ -11030,7 +11030,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2832768850791139</v>
+        <v>0.3931223775141284</v>
       </c>
     </row>
     <row r="65">
@@ -11040,7 +11040,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2349493177251599</v>
+        <v>0.02349428180319217</v>
       </c>
     </row>
     <row r="66">
@@ -11050,7 +11050,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.04853471081183183</v>
+        <v>-0.1000771710633901</v>
       </c>
     </row>
     <row r="67">
@@ -11060,7 +11060,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.1588749826764044</v>
+        <v>0.08890129772704977</v>
       </c>
     </row>
     <row r="68">
@@ -11070,7 +11070,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1820780807316033</v>
+        <v>0.05366913346463158</v>
       </c>
     </row>
     <row r="69">
@@ -11080,7 +11080,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.03637125654884286</v>
+        <v>0.1655237267894651</v>
       </c>
     </row>
     <row r="70">
@@ -11090,7 +11090,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.03372997272778171</v>
+        <v>-0.13257274304315</v>
       </c>
     </row>
     <row r="71">
@@ -11100,7 +11100,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1251535778094048</v>
+        <v>0.1343716753130609</v>
       </c>
     </row>
     <row r="72">
@@ -11110,7 +11110,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.2928585043076948</v>
+        <v>-0.08980148737920085</v>
       </c>
     </row>
     <row r="73">
@@ -11120,7 +11120,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.1261461175010563</v>
+        <v>0.03366528085669118</v>
       </c>
     </row>
     <row r="74">
@@ -11130,7 +11130,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.06584132025298661</v>
+        <v>0.07259888847926842</v>
       </c>
     </row>
     <row r="75">
@@ -11140,7 +11140,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1093015971505282</v>
+        <v>-0.06385370823065237</v>
       </c>
     </row>
     <row r="76">
@@ -11150,7 +11150,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.04079112033454291</v>
+        <v>-0.2398817072909493</v>
       </c>
     </row>
     <row r="77">
@@ -11160,7 +11160,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01206880561073471</v>
+        <v>0.1292584837997472</v>
       </c>
     </row>
     <row r="78">
@@ -11170,7 +11170,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.03791058396694503</v>
+        <v>-0.1600607476427747</v>
       </c>
     </row>
     <row r="79">
@@ -11180,7 +11180,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1095336202434823</v>
+        <v>-0.06835251638282278</v>
       </c>
     </row>
     <row r="80">
@@ -11190,7 +11190,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.1214488959205482</v>
+        <v>0.1831622398001914</v>
       </c>
     </row>
     <row r="81">
@@ -11200,7 +11200,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.13617879350401</v>
+        <v>-0.07758159629870998</v>
       </c>
     </row>
     <row r="82">
@@ -11210,7 +11210,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.1494831393864079</v>
+        <v>-0.02853058871372812</v>
       </c>
     </row>
     <row r="83">
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.07971132828984381</v>
+        <v>-0.05217501786008596</v>
       </c>
     </row>
     <row r="84">
@@ -11230,7 +11230,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1336275041658909</v>
+        <v>-0.01394053953115866</v>
       </c>
     </row>
     <row r="85">
@@ -11240,7 +11240,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1950428313221807</v>
+        <v>-0.008036978510895571</v>
       </c>
     </row>
     <row r="86">
@@ -11250,7 +11250,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.05097743205145073</v>
+        <v>0.1504288628379969</v>
       </c>
     </row>
     <row r="87">
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1880772843324529</v>
+        <v>0.09950538114104077</v>
       </c>
     </row>
     <row r="88">
@@ -11270,7 +11270,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1490785301446311</v>
+        <v>0.01302741983572743</v>
       </c>
     </row>
     <row r="89">
@@ -11280,7 +11280,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.0479915848279479</v>
+        <v>0.3204951913327034</v>
       </c>
     </row>
     <row r="90">
@@ -11290,7 +11290,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.1146798998546378</v>
+        <v>-0.4899404743537168</v>
       </c>
     </row>
     <row r="91">
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.1356798175946423</v>
+        <v>0.1748095799684721</v>
       </c>
     </row>
     <row r="92">
@@ -11310,7 +11310,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.07143289965300838</v>
+        <v>-0.03108319009349968</v>
       </c>
     </row>
     <row r="93">
@@ -11320,7 +11320,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1017257419335861</v>
+        <v>-0.05217556831697118</v>
       </c>
     </row>
     <row r="94">
@@ -11330,7 +11330,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.3818186562782601</v>
+        <v>0.2213659297724213</v>
       </c>
     </row>
     <row r="95">
@@ -11340,7 +11340,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.08849638216766904</v>
+        <v>0.1383930120339442</v>
       </c>
     </row>
     <row r="96">
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.2895697416410148</v>
+        <v>0.2556236684558062</v>
       </c>
     </row>
     <row r="97">
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1148935742077338</v>
+        <v>-0.02210176354365512</v>
       </c>
     </row>
     <row r="98">
@@ -11370,7 +11370,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1067425717565981</v>
+        <v>0.3475975742798533</v>
       </c>
     </row>
     <row r="99">
@@ -11380,7 +11380,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.3251459035550745</v>
+        <v>-0.6116867077812392</v>
       </c>
     </row>
     <row r="100">
@@ -11390,7 +11390,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.05860628121783527</v>
+        <v>0.3319999699577791</v>
       </c>
     </row>
     <row r="101">
@@ -11400,7 +11400,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.07379882073798603</v>
+        <v>-0.04893030328245453</v>
       </c>
     </row>
     <row r="102">
@@ -11410,7 +11410,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.1136892107531329</v>
+        <v>-0.04445614826432572</v>
       </c>
     </row>
     <row r="103">
@@ -11420,7 +11420,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.3692651909555235</v>
+        <v>0.1206464928450284</v>
       </c>
     </row>
     <row r="104">
@@ -11430,7 +11430,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1060000600482062</v>
+        <v>0.07958220693198592</v>
       </c>
     </row>
     <row r="105">
@@ -11440,7 +11440,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.2916466928699581</v>
+        <v>0.1629397981683067</v>
       </c>
     </row>
     <row r="106">
@@ -11450,7 +11450,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.1475535311557822</v>
+        <v>-0.001620637558056246</v>
       </c>
     </row>
     <row r="107">
@@ -11460,7 +11460,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.2026772543953034</v>
+        <v>0.3242522588983661</v>
       </c>
     </row>
     <row r="108">
@@ -11470,7 +11470,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.2862828153299249</v>
+        <v>-0.5476525483195746</v>
       </c>
     </row>
     <row r="109">
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.004238038473260672</v>
+        <v>0.2888150500141803</v>
       </c>
     </row>
     <row r="110">
@@ -11490,7 +11490,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.1571637389247129</v>
+        <v>0.0120768261698684</v>
       </c>
     </row>
     <row r="111">
@@ -11500,7 +11500,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.1210849709113041</v>
+        <v>-0.04036598308518987</v>
       </c>
     </row>
     <row r="112">
@@ -11510,7 +11510,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.3383761134064076</v>
+        <v>0.1239677877118527</v>
       </c>
     </row>
     <row r="113">
@@ -11520,7 +11520,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.2301002715852072</v>
+        <v>0.1602065903999591</v>
       </c>
     </row>
     <row r="114">
@@ -11530,7 +11530,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.337230315059413</v>
+        <v>0.2054519669966071</v>
       </c>
     </row>
     <row r="115">
@@ -11540,7 +11540,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.1602613636167936</v>
+        <v>0.007326490263861053</v>
       </c>
     </row>
     <row r="116">
@@ -11550,7 +11550,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.3127314546879267</v>
+        <v>0.3680902872704677</v>
       </c>
     </row>
     <row r="117">
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.2411737019235091</v>
+        <v>-0.5666134682574201</v>
       </c>
     </row>
     <row r="118">
@@ -11570,7 +11570,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.004854865608193039</v>
+        <v>0.3573985038781813</v>
       </c>
     </row>
     <row r="119">
@@ -11580,7 +11580,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.2153487707242228</v>
+        <v>0.01504977873442715</v>
       </c>
     </row>
     <row r="120">
@@ -11590,7 +11590,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.1187233846082482</v>
+        <v>-0.04406603607883353</v>
       </c>
     </row>
     <row r="121">
@@ -11600,7 +11600,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.3804820556794609</v>
+        <v>0.126723165766772</v>
       </c>
     </row>
     <row r="122">
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.345046531847102</v>
+        <v>0.1722368379685841</v>
       </c>
     </row>
     <row r="123">
@@ -11620,7 +11620,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.4217165647164521</v>
+        <v>0.2171053036137218</v>
       </c>
     </row>
     <row r="124">
@@ -11630,7 +11630,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.1607177911465024</v>
+        <v>0.004815143198531978</v>
       </c>
     </row>
     <row r="125">
@@ -11640,7 +11640,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.4553991212973827</v>
+        <v>0.3767563016015886</v>
       </c>
     </row>
     <row r="126">
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.3635226271008283</v>
+        <v>-0.6264691741759411</v>
       </c>
     </row>
     <row r="127">
@@ -11660,7 +11660,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.07576205259915371</v>
+        <v>0.4367643306648717</v>
       </c>
     </row>
   </sheetData>
